--- a/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
@@ -38,7 +38,6 @@
     <definedName name="safa">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G166" authorId="0" shapeId="0">
+    <comment ref="G167" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -176,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G168" authorId="0" shapeId="0">
+    <comment ref="G169" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -201,7 +200,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G171" authorId="0" shapeId="0">
+    <comment ref="G172" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -226,7 +225,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G184" authorId="0" shapeId="0">
+    <comment ref="G185" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,7 +250,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H184" authorId="0" shapeId="0">
+    <comment ref="H185" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +275,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G185" authorId="0" shapeId="0">
+    <comment ref="G186" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -301,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H185" authorId="0" shapeId="0">
+    <comment ref="H186" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +325,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G190" authorId="0" shapeId="0">
+    <comment ref="G191" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -351,7 +350,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H190" authorId="0" shapeId="0">
+    <comment ref="H191" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -376,7 +375,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G193" authorId="0" shapeId="0">
+    <comment ref="G194" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -401,7 +400,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G208" authorId="0" shapeId="0">
+    <comment ref="G209" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -426,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G210" authorId="0" shapeId="0">
+    <comment ref="G211" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -456,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="405">
   <si>
     <r>
       <rPr>
@@ -1266,9 +1265,6 @@
     <t>Check District by input data</t>
   </si>
   <si>
-    <t>Check District by select</t>
-  </si>
-  <si>
     <t xml:space="preserve">Check District by select second value </t>
   </si>
   <si>
@@ -1303,9 +1299,6 @@
   </si>
   <si>
     <t xml:space="preserve">Check Home and Office button is clickable </t>
-  </si>
-  <si>
-    <t>Check Home and Office icon</t>
   </si>
   <si>
     <t>Verify save successfully when input valid data all fields as Home</t>
@@ -1349,54 +1342,28 @@
 1.2. Phone Number field is blank</t>
   </si>
   <si>
-    <t>3. Show error message below the Phone Number field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Error message 2: Please enter your Phone number </t>
-  </si>
-  <si>
-    <t>Error message 1: The length of phone number
-should be 10 characters</t>
-  </si>
-  <si>
     <t>Check Phone Number when input URL, SQL, HTTP GET, SQL Injection, XSS</t>
   </si>
   <si>
     <t>Check if Phone number have the space between the digits</t>
   </si>
   <si>
-    <t>3.1 Phone Number display "086900806"
-3.2 Show error message below the Phone Number field</t>
-  </si>
-  <si>
     <t>1. Observe Address</t>
   </si>
   <si>
-    <t>Error message "Please enter your Address" displays below the Address field</t>
-  </si>
-  <si>
     <t>Check that show error message if input 4 Alphanumeric</t>
   </si>
   <si>
-    <t xml:space="preserve">Error message "Please enter your Address" </t>
-  </si>
-  <si>
     <t>Check  if input 10 Alphanumeric</t>
   </si>
   <si>
     <t>Check if input 351 Alphanumeric</t>
-  </si>
-  <si>
-    <t>3. Show error message below the Address field</t>
   </si>
   <si>
     <t>1.1. Placeholder displays "First Last"
 1.2. Address field is blank</t>
   </si>
   <si>
-    <t>Error message "Please select your Province "</t>
-  </si>
-  <si>
     <t>2. Province droplist is 63 provinces and sort ascending</t>
   </si>
   <si>
@@ -1424,9 +1391,6 @@
   <si>
     <t>1.1. Placeholder displays "Please choose your province"
 1.2. Province field is blank</t>
-  </si>
-  <si>
-    <t>3. Show error message below the Province field</t>
   </si>
   <si>
     <t>1. Click on Province
@@ -1485,12 +1449,6 @@
   <si>
     <t>1. Select "Ha Noi" in Province and "Hoang Mai" District 
 2. Observe Ward</t>
-  </si>
-  <si>
-    <t>1. Observe Home and Office button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Observe Home and Office button have icon </t>
   </si>
   <si>
     <t>1. Observe Label for delivery</t>
@@ -1574,9 +1532,6 @@
 3. Observe screen</t>
   </si>
   <si>
-    <t>3. Back to Address Book screen, ignore all data.</t>
-  </si>
-  <si>
     <t>Check mandatory of this field</t>
   </si>
   <si>
@@ -1765,14 +1720,6 @@
   <si>
     <t>3.1 Phone Number display "@"
 3.2 Show error message below the Phone Number field</t>
-  </si>
-  <si>
-    <t>3.1 Phone Number display "08690080688"
-3.2 Show error message below the Phone Number field</t>
-  </si>
-  <si>
-    <t>3.1. Address field displays "1234"
-3.2. Error message displays below the Address field</t>
   </si>
   <si>
     <t xml:space="preserve">3.1. Address field displays "12345"
@@ -1980,6 +1927,58 @@
 2. Input valid data on all mandatory fields
 3. Click on Save button
 4. Observe Full name</t>
+  </si>
+  <si>
+    <t>3. Back to Address Book screen, ignore all data.
+Cancel add new Address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Back to Address Book screen, ignore all data.
+Cancel add new Address
+</t>
+  </si>
+  <si>
+    <t>3. Show error message"Please select your Province " below the Province field</t>
+  </si>
+  <si>
+    <t>3.1. Address field displays "1234"
+3.2. Error message "Please enter your Address" displays below the Address field</t>
+  </si>
+  <si>
+    <t>3. Show error message "Please enter your Address" displays below the Address field below the Address field</t>
+  </si>
+  <si>
+    <t>3.1 Phone Number display "08690080688"
+3.2 Show error message "The length of phone number should be 10 characters" below the Phone Number field</t>
+  </si>
+  <si>
+    <t>3.1 Phone Number display "086900806"
+3.2 Show error message "The length of phone number should be 10 characters" below the Phone Number field</t>
+  </si>
+  <si>
+    <t>3. Show error message "Please enter your Phone number" below the Phone Number field</t>
+  </si>
+  <si>
+    <t>Check Home icon</t>
+  </si>
+  <si>
+    <t>Check Office icon</t>
+  </si>
+  <si>
+    <t>1. Observe Home icon</t>
+  </si>
+  <si>
+    <t>1. Observe Office icon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Office button have icon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Home button have icon </t>
+  </si>
+  <si>
+    <t>Check District by select
+abcyxz</t>
   </si>
 </sst>
 </file>
@@ -2928,7 +2927,7 @@
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="279">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="11" applyFont="1" applyAlignment="1">
@@ -3707,6 +3706,12 @@
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="17" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -3976,7 +3981,8 @@
                   <c:v>Check District by input data</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>Check District by select</c:v>
+                  <c:v>Check District by select
+abcyxz</c:v>
                 </c:pt>
                 <c:pt idx="20">
                   <c:v>Check District by select second value </c:v>
@@ -4066,10 +4072,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$87:$A$156</c:f>
+              <c:f>'User Story 1'!$A$87:$A$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -4079,58 +4085,58 @@
                 <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
@@ -4138,10 +4144,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$B$87:$B$156</c:f>
+              <c:f>'User Story 1'!$B$87:$B$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4185,6 +4191,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4402,10 +4411,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$87:$A$156</c:f>
+              <c:f>'User Story 1'!$A$87:$A$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -4415,58 +4424,58 @@
                 <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
@@ -4474,10 +4483,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$C$87:$C$156</c:f>
+              <c:f>'User Story 1'!$C$87:$C$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4493,7 +4502,7 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -4515,6 +4524,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4549,7 +4561,7 @@
 1.2. Province field is blank</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3. Show error message below the Province field</c:v>
+                  <c:v>3. Show error message"Please select your Province " below the Province field</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2. Province droplist is 63 provinces and sort ascending</c:v>
@@ -4686,10 +4698,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$87:$A$156</c:f>
+              <c:f>'User Story 1'!$A$87:$A$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -4699,58 +4711,58 @@
                 <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
@@ -4758,10 +4770,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$D$87:$D$156</c:f>
+              <c:f>'User Story 1'!$D$87:$D$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4777,7 +4789,7 @@
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
@@ -4799,6 +4811,9 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -4833,7 +4848,7 @@
 1.2. Province field is blank</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Error message "Please select your Province "</c:v>
+                  <c:v>3. Show error message"Please select your Province " below the Province field</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>2. Province droplist is 63 provinces and sort ascending</c:v>
@@ -4970,10 +4985,10 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'User Story 1'!$A$87:$A$156</c:f>
+              <c:f>'User Story 1'!$A$87:$A$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
                 <c:pt idx="0">
                   <c:v>62</c:v>
                 </c:pt>
@@ -4983,58 +4998,58 @@
                 <c:pt idx="3">
                   <c:v>64</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>65</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>66</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>67</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>68</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>69</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>70</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>71</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>72</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>73</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="15">
                   <c:v>74</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="16">
                   <c:v>75</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="17">
                   <c:v>76</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="18">
                   <c:v>77</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="19">
                   <c:v>78</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="20">
                   <c:v>79</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>80</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>81</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
                   <c:v>82</c:v>
                 </c:pt>
               </c:numCache>
@@ -5042,10 +5057,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'User Story 1'!$F$87:$F$156</c:f>
+              <c:f>'User Story 1'!$F$87:$F$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="70"/>
+                <c:ptCount val="71"/>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6734,10 +6749,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AMJ210"/>
+  <dimension ref="A1:AMJ211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6924,15 +6939,15 @@
         <v>41</v>
       </c>
       <c r="B11" s="175">
-        <f>COUNTIF($G$18:$G$49762,"*Passed")</f>
+        <f>COUNTIF($G$18:$G$49763,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="C11" s="176">
-        <f>COUNTIF($H$18:$H$49762,"*Passed")</f>
+        <f>COUNTIF($H$18:$H$49763,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="D11" s="176">
-        <f>COUNTIF($I$18:$I$49762,"*Passed")</f>
+        <f>COUNTIF($I$18:$I$49763,"*Passed")</f>
         <v>0</v>
       </c>
       <c r="E11" s="176"/>
@@ -6947,15 +6962,15 @@
         <v>43</v>
       </c>
       <c r="B12" s="175">
-        <f>COUNTIF($G$18:$G$49482,"*Failed*")</f>
+        <f>COUNTIF($G$18:$G$49483,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="C12" s="176">
-        <f>COUNTIF($H$18:$H$49482,"*Failed*")</f>
+        <f>COUNTIF($H$18:$H$49483,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="D12" s="176">
-        <f>COUNTIF($I$18:$I$49482,"*Failed*")</f>
+        <f>COUNTIF($I$18:$I$49483,"*Failed*")</f>
         <v>0</v>
       </c>
       <c r="E12" s="176"/>
@@ -6970,15 +6985,15 @@
         <v>45</v>
       </c>
       <c r="B13" s="175">
-        <f>COUNTIF($G$18:$G$49482,"*Not Run*")</f>
+        <f>COUNTIF($G$18:$G$49483,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="C13" s="176">
-        <f>COUNTIF($H$18:$H$49482,"*Not Run*")</f>
+        <f>COUNTIF($H$18:$H$49483,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="D13" s="176">
-        <f>COUNTIF($I$18:$I$49482,"*Not Run*")</f>
+        <f>COUNTIF($I$18:$I$49483,"*Not Run*")</f>
         <v>0</v>
       </c>
       <c r="E13" s="176"/>
@@ -6993,15 +7008,15 @@
         <v>101</v>
       </c>
       <c r="B14" s="175">
-        <f>COUNTIF($G$18:$G$49482,"*NA*")</f>
+        <f>COUNTIF($G$18:$G$49483,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="C14" s="176">
-        <f>COUNTIF($H$18:$H$49482,"*NA*")</f>
+        <f>COUNTIF($H$18:$H$49483,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="D14" s="176">
-        <f>COUNTIF($I$18:$I$49482,"*NA*")</f>
+        <f>COUNTIF($I$18:$I$49483,"*NA*")</f>
         <v>0</v>
       </c>
       <c r="E14" s="176"/>
@@ -7016,15 +7031,15 @@
         <v>102</v>
       </c>
       <c r="B15" s="175">
-        <f>COUNTIF($G$18:$G$49482,"*Passed in previous build*")</f>
+        <f>COUNTIF($G$18:$G$49483,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="C15" s="176">
-        <f>COUNTIF($H$18:$H$49482,"*Passed in previous build*")</f>
+        <f>COUNTIF($H$18:$H$49483,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="D15" s="176">
-        <f>COUNTIF($I$18:$I$49482,"*Passed in previous build*")</f>
+        <f>COUNTIF($I$18:$I$49483,"*Passed in previous build*")</f>
         <v>0</v>
       </c>
       <c r="E15" s="176"/>
@@ -7078,7 +7093,7 @@
         <v>198</v>
       </c>
       <c r="C18" s="188" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D18" s="189"/>
       <c r="E18" s="190"/>
@@ -7104,17 +7119,17 @@
     </row>
     <row r="20" spans="1:10" s="79" customFormat="1" ht="25.5">
       <c r="A20" s="193">
-        <f t="shared" ref="A20:A91" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
+        <f t="shared" ref="A20:A92" ca="1" si="0">IF(OFFSET(A20,-1,0) ="",OFFSET(A20,-2,0)+1,OFFSET(A20,-1,0)+1 )</f>
         <v>1</v>
       </c>
       <c r="B20" s="199" t="s">
         <v>222</v>
       </c>
       <c r="C20" s="200" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D20" s="201" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E20" s="200"/>
       <c r="F20" s="201"/>
@@ -7129,13 +7144,13 @@
         <v>2</v>
       </c>
       <c r="B21" s="199" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
       <c r="C21" s="201" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="D21" s="201" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
       <c r="E21" s="200"/>
       <c r="F21" s="201"/>
@@ -7150,13 +7165,13 @@
         <v>3</v>
       </c>
       <c r="B22" s="199" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C22" s="201" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="D22" s="201" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E22" s="200"/>
       <c r="F22" s="201"/>
@@ -7171,13 +7186,13 @@
         <v>4</v>
       </c>
       <c r="B23" s="199" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C23" s="201" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="D23" s="201" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E23" s="201"/>
       <c r="F23" s="202"/>
@@ -7195,10 +7210,10 @@
         <v>203</v>
       </c>
       <c r="C24" s="201" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="D24" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E24" s="201"/>
       <c r="F24" s="202"/>
@@ -7216,10 +7231,10 @@
         <v>223</v>
       </c>
       <c r="C25" s="201" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="D25" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E25" s="200"/>
       <c r="F25" s="202"/>
@@ -7237,10 +7252,10 @@
         <v>204</v>
       </c>
       <c r="C26" s="201" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="D26" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E26" s="200"/>
       <c r="F26" s="202"/>
@@ -7255,13 +7270,13 @@
         <v>8</v>
       </c>
       <c r="B27" s="199" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
       <c r="C27" s="201" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="D27" s="201" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
       <c r="E27" s="201"/>
       <c r="F27" s="204"/>
@@ -7279,10 +7294,10 @@
         <v>224</v>
       </c>
       <c r="C28" s="201" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="D28" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E28" s="200"/>
       <c r="F28" s="204"/>
@@ -7300,10 +7315,10 @@
         <v>202</v>
       </c>
       <c r="C29" s="201" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="D29" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E29" s="200"/>
       <c r="F29" s="204"/>
@@ -7321,10 +7336,10 @@
         <v>221</v>
       </c>
       <c r="C30" s="193" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
       <c r="D30" s="201" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
       <c r="E30" s="206"/>
       <c r="F30" s="204"/>
@@ -7339,13 +7354,13 @@
         <v>12</v>
       </c>
       <c r="B31" s="238" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C31" s="201" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
       <c r="E31" s="200"/>
       <c r="F31" s="204"/>
@@ -7377,10 +7392,10 @@
         <v>222</v>
       </c>
       <c r="C33" s="210" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D33" s="201" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E33" s="200"/>
       <c r="F33" s="211"/>
@@ -7398,14 +7413,12 @@
         <v>199</v>
       </c>
       <c r="C34" s="201" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="D34" s="201" t="s">
-        <v>260</v>
-      </c>
-      <c r="E34" s="200" t="s">
-        <v>261</v>
-      </c>
+        <v>397</v>
+      </c>
+      <c r="E34" s="200"/>
       <c r="F34" s="212"/>
       <c r="G34" s="193"/>
       <c r="H34" s="193"/>
@@ -7421,14 +7434,12 @@
         <v>226</v>
       </c>
       <c r="C35" s="201" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="D35" s="201" t="s">
-        <v>265</v>
-      </c>
-      <c r="E35" s="201" t="s">
-        <v>262</v>
-      </c>
+        <v>396</v>
+      </c>
+      <c r="E35" s="201"/>
       <c r="F35" s="212"/>
       <c r="G35" s="193"/>
       <c r="H35" s="193"/>
@@ -7444,10 +7455,10 @@
         <v>205</v>
       </c>
       <c r="C36" s="201" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
       <c r="D36" s="201" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E36" s="213"/>
       <c r="F36" s="212"/>
@@ -7465,14 +7476,12 @@
         <v>225</v>
       </c>
       <c r="C37" s="201" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
       <c r="D37" s="201" t="s">
-        <v>359</v>
-      </c>
-      <c r="E37" s="201" t="s">
-        <v>262</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="E37" s="201"/>
       <c r="F37" s="212"/>
       <c r="G37" s="193"/>
       <c r="H37" s="193"/>
@@ -7488,10 +7497,10 @@
         <v>227</v>
       </c>
       <c r="C38" s="201" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
       <c r="D38" s="201" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E38" s="200"/>
       <c r="F38" s="212"/>
@@ -7509,10 +7518,10 @@
         <v>228</v>
       </c>
       <c r="C39" s="201" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
       <c r="D39" s="201" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E39" s="200"/>
       <c r="F39" s="212"/>
@@ -7530,10 +7539,10 @@
         <v>224</v>
       </c>
       <c r="C40" s="201" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D40" s="201" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E40" s="200"/>
       <c r="F40" s="212"/>
@@ -7545,13 +7554,13 @@
     <row r="41" spans="1:10" s="79" customFormat="1" ht="51">
       <c r="A41" s="193"/>
       <c r="B41" s="199" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C41" s="201" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
       <c r="D41" s="201" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E41" s="200"/>
       <c r="F41" s="212"/>
@@ -7566,13 +7575,13 @@
         <v>21</v>
       </c>
       <c r="B42" s="199" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C42" s="201" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D42" s="201" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E42" s="200"/>
       <c r="F42" s="200"/>
@@ -7590,10 +7599,10 @@
         <v>221</v>
       </c>
       <c r="C43" s="201" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
       <c r="D43" s="201" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
       <c r="E43" s="200"/>
       <c r="F43" s="201"/>
@@ -7611,10 +7620,10 @@
         <v>200</v>
       </c>
       <c r="C44" s="201" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="D44" s="201" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E44" s="200"/>
       <c r="F44" s="201"/>
@@ -7646,10 +7655,10 @@
         <v>222</v>
       </c>
       <c r="C46" s="210" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="D46" s="214" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E46" s="200"/>
       <c r="F46" s="215"/>
@@ -7667,14 +7676,12 @@
         <v>199</v>
       </c>
       <c r="C47" s="201" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
       <c r="D47" s="201" t="s">
-        <v>272</v>
-      </c>
-      <c r="E47" s="214" t="s">
-        <v>267</v>
-      </c>
+        <v>394</v>
+      </c>
+      <c r="E47" s="214"/>
       <c r="F47" s="215"/>
       <c r="G47" s="193"/>
       <c r="H47" s="193"/>
@@ -7687,17 +7694,15 @@
         <v>26</v>
       </c>
       <c r="B48" s="160" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="C48" s="201" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>360</v>
-      </c>
-      <c r="E48" s="216" t="s">
-        <v>269</v>
-      </c>
+        <v>393</v>
+      </c>
+      <c r="E48" s="216"/>
       <c r="F48" s="215"/>
       <c r="G48" s="193"/>
       <c r="H48" s="193"/>
@@ -7713,10 +7718,10 @@
         <v>207</v>
       </c>
       <c r="C49" s="201" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
       <c r="D49" s="193" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="E49" s="216"/>
       <c r="F49" s="215"/>
@@ -7731,13 +7736,13 @@
         <v>28</v>
       </c>
       <c r="B50" s="203" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C50" s="201" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="D50" s="193" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="E50" s="200"/>
       <c r="F50" s="217"/>
@@ -7755,10 +7760,10 @@
         <v>208</v>
       </c>
       <c r="C51" s="201" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="D51" s="193" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E51" s="216"/>
       <c r="F51" s="217"/>
@@ -7773,13 +7778,13 @@
         <v>30</v>
       </c>
       <c r="B52" s="160" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C52" s="201" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="D52" s="193" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E52" s="216"/>
       <c r="F52" s="217"/>
@@ -7797,10 +7802,10 @@
         <v>210</v>
       </c>
       <c r="C53" s="201" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="D53" s="193" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E53" s="216"/>
       <c r="F53" s="217"/>
@@ -7818,10 +7823,10 @@
         <v>227</v>
       </c>
       <c r="C54" s="201" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
       <c r="D54" s="193" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E54" s="216"/>
       <c r="F54" s="217"/>
@@ -7839,10 +7844,10 @@
         <v>209</v>
       </c>
       <c r="C55" s="201" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="D55" s="201" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E55" s="216"/>
       <c r="F55" s="218"/>
@@ -7860,10 +7865,10 @@
         <v>221</v>
       </c>
       <c r="C56" s="201" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="D56" s="201" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
       <c r="E56" s="219"/>
       <c r="F56" s="218"/>
@@ -7881,10 +7886,10 @@
         <v>200</v>
       </c>
       <c r="C57" s="201" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="D57" s="201" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
       <c r="E57" s="220"/>
       <c r="F57" s="218"/>
@@ -7916,10 +7921,10 @@
         <v>222</v>
       </c>
       <c r="C59" s="210" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D59" s="214" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="E59" s="200"/>
       <c r="F59" s="200"/>
@@ -7937,14 +7942,12 @@
         <v>199</v>
       </c>
       <c r="C60" s="201" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
       <c r="D60" s="201" t="s">
-        <v>284</v>
-      </c>
-      <c r="E60" s="200" t="s">
-        <v>274</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="E60" s="200"/>
       <c r="F60" s="200"/>
       <c r="G60" s="193"/>
       <c r="H60" s="193"/>
@@ -7957,13 +7960,13 @@
         <v>38</v>
       </c>
       <c r="B61" s="199" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C61" s="201" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D61" s="201" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="E61" s="221"/>
       <c r="F61" s="201"/>
@@ -7981,10 +7984,10 @@
         <v>212</v>
       </c>
       <c r="C62" s="201" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="D62" s="201" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
       <c r="E62" s="221"/>
       <c r="F62" s="201"/>
@@ -8002,10 +8005,10 @@
         <v>213</v>
       </c>
       <c r="C63" s="201" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
       <c r="D63" s="201" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
       <c r="E63" s="221"/>
       <c r="F63" s="201"/>
@@ -8023,10 +8026,10 @@
         <v>229</v>
       </c>
       <c r="C64" s="201" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
       <c r="D64" s="201" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E64" s="222"/>
       <c r="F64" s="201"/>
@@ -8041,13 +8044,13 @@
         <v>42</v>
       </c>
       <c r="B65" s="205" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C65" s="201" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
       <c r="D65" s="201" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E65" s="206"/>
       <c r="F65" s="201"/>
@@ -8065,10 +8068,10 @@
         <v>230</v>
       </c>
       <c r="C66" s="201" t="s">
-        <v>285</v>
+        <v>274</v>
       </c>
       <c r="D66" s="193" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E66" s="223"/>
       <c r="F66" s="201"/>
@@ -8100,10 +8103,10 @@
         <v>222</v>
       </c>
       <c r="C68" s="210" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="D68" s="224" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="E68" s="200"/>
       <c r="F68" s="200"/>
@@ -8121,10 +8124,10 @@
         <v>199</v>
       </c>
       <c r="C69" s="201" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
       <c r="D69" s="224" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E69" s="200"/>
       <c r="F69" s="200"/>
@@ -8139,13 +8142,13 @@
         <v>46</v>
       </c>
       <c r="B70" s="225" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C70" s="201" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="D70" s="201" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E70" s="200"/>
       <c r="F70" s="200"/>
@@ -8163,10 +8166,10 @@
         <v>216</v>
       </c>
       <c r="C71" s="201" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
       <c r="D71" s="201" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
       <c r="E71" s="226"/>
       <c r="F71" s="200"/>
@@ -8181,13 +8184,13 @@
         <v>48</v>
       </c>
       <c r="B72" s="199" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C72" s="201" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="D72" s="193" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E72" s="227"/>
       <c r="F72" s="226"/>
@@ -8205,10 +8208,10 @@
         <v>232</v>
       </c>
       <c r="C73" s="201" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
       <c r="D73" s="193" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E73" s="206"/>
       <c r="F73" s="228"/>
@@ -8223,13 +8226,13 @@
         <v>50</v>
       </c>
       <c r="B74" s="199" t="s">
-        <v>233</v>
+        <v>404</v>
       </c>
       <c r="C74" s="201" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="D74" s="229" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
       <c r="E74" s="215"/>
       <c r="F74" s="210"/>
@@ -8244,13 +8247,13 @@
         <v>51</v>
       </c>
       <c r="B75" s="199" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C75" s="201" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
       <c r="D75" s="229" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
       <c r="E75" s="229"/>
       <c r="F75" s="210"/>
@@ -8268,10 +8271,10 @@
         <v>231</v>
       </c>
       <c r="C76" s="201" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
       <c r="D76" s="229" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E76" s="229"/>
       <c r="F76" s="210"/>
@@ -8286,13 +8289,13 @@
         <v>53</v>
       </c>
       <c r="B77" s="199" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C77" s="201" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
       <c r="D77" s="193" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E77" s="229"/>
       <c r="F77" s="210"/>
@@ -8315,7 +8318,7 @@
       <c r="I78" s="193"/>
       <c r="J78" s="198"/>
     </row>
-    <row r="79" spans="1:10" s="79" customFormat="1" ht="25.5">
+    <row r="79" spans="1:10" s="79" customFormat="1" ht="38.25">
       <c r="A79" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>54</v>
@@ -8324,10 +8327,10 @@
         <v>222</v>
       </c>
       <c r="C79" s="210" t="s">
-        <v>287</v>
+        <v>276</v>
       </c>
       <c r="D79" s="224" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="E79" s="200"/>
       <c r="F79" s="200"/>
@@ -8345,10 +8348,10 @@
         <v>199</v>
       </c>
       <c r="C80" s="201" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
       <c r="D80" s="224" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
       <c r="E80" s="200"/>
       <c r="F80" s="200"/>
@@ -8363,13 +8366,13 @@
         <v>56</v>
       </c>
       <c r="B81" s="225" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C81" s="201" t="s">
-        <v>297</v>
+        <v>286</v>
       </c>
       <c r="D81" s="201" t="s">
-        <v>288</v>
+        <v>277</v>
       </c>
       <c r="E81" s="200"/>
       <c r="F81" s="200"/>
@@ -8384,13 +8387,13 @@
         <v>57</v>
       </c>
       <c r="B82" s="199" t="s">
-        <v>289</v>
+        <v>278</v>
       </c>
       <c r="C82" s="201" t="s">
-        <v>296</v>
+        <v>285</v>
       </c>
       <c r="D82" s="201" t="s">
-        <v>290</v>
+        <v>279</v>
       </c>
       <c r="E82" s="200"/>
       <c r="F82" s="200"/>
@@ -8405,13 +8408,13 @@
         <v>58</v>
       </c>
       <c r="B83" s="199" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C83" s="201" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="D83" s="201" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
       <c r="E83" s="200"/>
       <c r="F83" s="200"/>
@@ -8426,13 +8429,13 @@
         <v>59</v>
       </c>
       <c r="B84" s="199" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C84" s="201" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="D84" s="201" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="E84" s="200"/>
       <c r="F84" s="200"/>
@@ -8447,13 +8450,13 @@
         <v>60</v>
       </c>
       <c r="B85" s="199" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C85" s="201" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="D85" s="229" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="E85" s="200"/>
       <c r="F85" s="201"/>
@@ -8468,13 +8471,13 @@
         <v>61</v>
       </c>
       <c r="B86" s="199" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C86" s="201" t="s">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="D86" s="229" t="s">
-        <v>295</v>
+        <v>284</v>
       </c>
       <c r="E86" s="200"/>
       <c r="F86" s="200"/>
@@ -8492,10 +8495,10 @@
         <v>231</v>
       </c>
       <c r="C87" s="201" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="D87" s="229" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="E87" s="200"/>
       <c r="F87" s="201"/>
@@ -8510,13 +8513,13 @@
         <v>63</v>
       </c>
       <c r="B88" s="199" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C88" s="201" t="s">
-        <v>298</v>
+        <v>287</v>
       </c>
       <c r="D88" s="193" t="s">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="E88" s="200"/>
       <c r="F88" s="201"/>
@@ -8545,13 +8548,13 @@
         <v>64</v>
       </c>
       <c r="B90" s="225" t="s">
-        <v>246</v>
+        <v>398</v>
       </c>
       <c r="C90" s="225" t="s">
-        <v>299</v>
+        <v>400</v>
       </c>
       <c r="D90" s="229" t="s">
-        <v>300</v>
+        <v>403</v>
       </c>
       <c r="E90" s="231"/>
       <c r="F90" s="210"/>
@@ -8561,179 +8564,176 @@
       <c r="J90" s="198"/>
     </row>
     <row r="91" spans="1:10" s="79" customFormat="1">
-      <c r="A91" s="193">
-        <f t="shared" ca="1" si="0"/>
-        <v>65</v>
-      </c>
-      <c r="B91" s="199" t="s">
-        <v>222</v>
+      <c r="A91" s="193"/>
+      <c r="B91" s="225" t="s">
+        <v>399</v>
       </c>
       <c r="C91" s="225" t="s">
-        <v>301</v>
-      </c>
-      <c r="D91" s="201" t="s">
-        <v>302</v>
-      </c>
-      <c r="E91" s="200"/>
-      <c r="F91" s="200"/>
+        <v>401</v>
+      </c>
+      <c r="D91" s="229" t="s">
+        <v>402</v>
+      </c>
+      <c r="E91" s="280"/>
+      <c r="F91" s="210"/>
       <c r="G91" s="193"/>
       <c r="H91" s="193"/>
       <c r="I91" s="193"/>
       <c r="J91" s="198"/>
     </row>
-    <row r="92" spans="1:10" s="79" customFormat="1" ht="60">
+    <row r="92" spans="1:10" s="79" customFormat="1" ht="25.5">
       <c r="A92" s="193">
-        <f t="shared" ref="A92:A109" ca="1" si="1">IF(OFFSET(A92,-1,0) ="",OFFSET(A92,-2,0)+1,OFFSET(A92,-1,0)+1 )</f>
-        <v>66</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>65</v>
       </c>
       <c r="B92" s="199" t="s">
-        <v>245</v>
-      </c>
-      <c r="C92" s="199" t="s">
-        <v>303</v>
+        <v>222</v>
+      </c>
+      <c r="C92" s="225" t="s">
+        <v>288</v>
       </c>
       <c r="D92" s="201" t="s">
-        <v>304</v>
+        <v>289</v>
       </c>
       <c r="E92" s="200"/>
       <c r="F92" s="200"/>
-      <c r="G92" s="232"/>
-      <c r="H92" s="232"/>
-      <c r="I92" s="232"/>
-      <c r="J92" s="233"/>
-    </row>
-    <row r="93" spans="1:10" s="79" customFormat="1">
-      <c r="A93" s="193"/>
-      <c r="B93" s="194" t="s">
-        <v>220</v>
-      </c>
-      <c r="C93" s="194"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="195"/>
-      <c r="F93" s="208"/>
+      <c r="G92" s="193"/>
+      <c r="H92" s="193"/>
+      <c r="I92" s="193"/>
+      <c r="J92" s="198"/>
+    </row>
+    <row r="93" spans="1:10" s="79" customFormat="1" ht="60">
+      <c r="A93" s="193">
+        <f t="shared" ref="A93:A110" ca="1" si="1">IF(OFFSET(A93,-1,0) ="",OFFSET(A93,-2,0)+1,OFFSET(A93,-1,0)+1 )</f>
+        <v>66</v>
+      </c>
+      <c r="B93" s="199" t="s">
+        <v>244</v>
+      </c>
+      <c r="C93" s="199" t="s">
+        <v>290</v>
+      </c>
+      <c r="D93" s="201" t="s">
+        <v>291</v>
+      </c>
+      <c r="E93" s="200"/>
+      <c r="F93" s="200"/>
       <c r="G93" s="232"/>
       <c r="H93" s="232"/>
       <c r="I93" s="232"/>
       <c r="J93" s="233"/>
     </row>
-    <row r="94" spans="1:10" s="79" customFormat="1" ht="51">
-      <c r="A94" s="193">
-        <f t="shared" ca="1" si="1"/>
-        <v>67</v>
-      </c>
-      <c r="B94" s="199" t="s">
-        <v>247</v>
-      </c>
-      <c r="C94" s="199" t="s">
-        <v>317</v>
-      </c>
-      <c r="D94" s="201" t="s">
-        <v>390</v>
-      </c>
-      <c r="E94" s="221"/>
-      <c r="F94" s="226"/>
+    <row r="94" spans="1:10" s="79" customFormat="1">
+      <c r="A94" s="193"/>
+      <c r="B94" s="194" t="s">
+        <v>220</v>
+      </c>
+      <c r="C94" s="194"/>
+      <c r="D94" s="196"/>
+      <c r="E94" s="195"/>
+      <c r="F94" s="208"/>
       <c r="G94" s="232"/>
       <c r="H94" s="232"/>
       <c r="I94" s="232"/>
       <c r="J94" s="233"/>
     </row>
-    <row r="95" spans="1:10" s="79" customFormat="1" ht="60">
+    <row r="95" spans="1:10" s="79" customFormat="1" ht="51">
       <c r="A95" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B95" s="199" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C95" s="199" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="D95" s="201" t="s">
-        <v>305</v>
-      </c>
-      <c r="E95" s="234"/>
+        <v>374</v>
+      </c>
+      <c r="E95" s="221"/>
       <c r="F95" s="226"/>
       <c r="G95" s="232"/>
       <c r="H95" s="232"/>
       <c r="I95" s="232"/>
       <c r="J95" s="233"/>
     </row>
-    <row r="96" spans="1:10" s="79" customFormat="1" ht="45">
+    <row r="96" spans="1:10" s="79" customFormat="1" ht="60">
       <c r="A96" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B96" s="199" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C96" s="199" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="D96" s="201" t="s">
-        <v>306</v>
-      </c>
-      <c r="E96" s="235"/>
+        <v>292</v>
+      </c>
+      <c r="E96" s="234"/>
       <c r="F96" s="226"/>
       <c r="G96" s="232"/>
       <c r="H96" s="232"/>
       <c r="I96" s="232"/>
       <c r="J96" s="233"/>
     </row>
-    <row r="97" spans="1:11" s="79" customFormat="1" ht="75">
+    <row r="97" spans="1:11" s="79" customFormat="1" ht="45">
       <c r="A97" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B97" s="199" t="s">
-        <v>218</v>
+        <v>243</v>
       </c>
       <c r="C97" s="199" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
       <c r="D97" s="201" t="s">
-        <v>307</v>
-      </c>
-      <c r="E97" s="221"/>
+        <v>293</v>
+      </c>
+      <c r="E97" s="235"/>
       <c r="F97" s="226"/>
       <c r="G97" s="232"/>
       <c r="H97" s="232"/>
       <c r="I97" s="232"/>
       <c r="J97" s="233"/>
     </row>
-    <row r="98" spans="1:11" s="159" customFormat="1" ht="120">
+    <row r="98" spans="1:11" s="79" customFormat="1" ht="75">
       <c r="A98" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>71</v>
-      </c>
-      <c r="B98" s="160" t="s">
-        <v>219</v>
+        <v>70</v>
+      </c>
+      <c r="B98" s="199" t="s">
+        <v>218</v>
       </c>
       <c r="C98" s="199" t="s">
-        <v>313</v>
-      </c>
-      <c r="D98" s="215" t="s">
-        <v>308</v>
-      </c>
-      <c r="E98" s="216"/>
-      <c r="F98" s="217"/>
-      <c r="G98" s="215"/>
-      <c r="H98" s="215"/>
-      <c r="I98" s="215"/>
-      <c r="J98" s="236"/>
+        <v>301</v>
+      </c>
+      <c r="D98" s="201" t="s">
+        <v>294</v>
+      </c>
+      <c r="E98" s="221"/>
+      <c r="F98" s="226"/>
+      <c r="G98" s="232"/>
+      <c r="H98" s="232"/>
+      <c r="I98" s="232"/>
+      <c r="J98" s="233"/>
     </row>
     <row r="99" spans="1:11" s="159" customFormat="1" ht="120">
       <c r="A99" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B99" s="160" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="C99" s="199" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
       <c r="D99" s="215" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="E99" s="216"/>
       <c r="F99" s="217"/>
@@ -8742,19 +8742,19 @@
       <c r="I99" s="215"/>
       <c r="J99" s="236"/>
     </row>
-    <row r="100" spans="1:11" s="159" customFormat="1" ht="45">
+    <row r="100" spans="1:11" s="159" customFormat="1" ht="120">
       <c r="A100" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B100" s="160" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C100" s="199" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="D100" s="215" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="E100" s="216"/>
       <c r="F100" s="217"/>
@@ -8766,16 +8766,16 @@
     <row r="101" spans="1:11" s="159" customFormat="1" ht="45">
       <c r="A101" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B101" s="160" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C101" s="199" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
       <c r="D101" s="215" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="E101" s="216"/>
       <c r="F101" s="217"/>
@@ -8784,15 +8784,21 @@
       <c r="I101" s="215"/>
       <c r="J101" s="236"/>
     </row>
-    <row r="102" spans="1:11" s="80" customFormat="1">
+    <row r="102" spans="1:11" s="159" customFormat="1" ht="45">
       <c r="A102" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
-      </c>
-      <c r="B102" s="160"/>
-      <c r="C102" s="216"/>
-      <c r="D102" s="215"/>
-      <c r="E102" s="216"/>
+        <v>74</v>
+      </c>
+      <c r="B102" s="160" t="s">
+        <v>249</v>
+      </c>
+      <c r="C102" s="199" t="s">
+        <v>298</v>
+      </c>
+      <c r="D102" s="215" t="s">
+        <v>391</v>
+      </c>
+      <c r="E102" s="279"/>
       <c r="F102" s="217"/>
       <c r="G102" s="215"/>
       <c r="H102" s="215"/>
@@ -8802,12 +8808,12 @@
     <row r="103" spans="1:11" s="80" customFormat="1">
       <c r="A103" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="160"/>
       <c r="C103" s="216"/>
       <c r="D103" s="215"/>
-      <c r="E103" s="216"/>
+      <c r="E103" s="210"/>
       <c r="F103" s="217"/>
       <c r="G103" s="215"/>
       <c r="H103" s="215"/>
@@ -8817,12 +8823,12 @@
     <row r="104" spans="1:11" s="80" customFormat="1">
       <c r="A104" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="160"/>
       <c r="C104" s="216"/>
       <c r="D104" s="215"/>
-      <c r="E104" s="215"/>
+      <c r="E104" s="216"/>
       <c r="F104" s="217"/>
       <c r="G104" s="215"/>
       <c r="H104" s="215"/>
@@ -8832,12 +8838,12 @@
     <row r="105" spans="1:11" s="80" customFormat="1">
       <c r="A105" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="160"/>
       <c r="C105" s="216"/>
       <c r="D105" s="215"/>
-      <c r="E105" s="216"/>
+      <c r="E105" s="215"/>
       <c r="F105" s="217"/>
       <c r="G105" s="215"/>
       <c r="H105" s="215"/>
@@ -8847,7 +8853,7 @@
     <row r="106" spans="1:11" s="80" customFormat="1">
       <c r="A106" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B106" s="160"/>
       <c r="C106" s="216"/>
@@ -8862,23 +8868,22 @@
     <row r="107" spans="1:11" s="80" customFormat="1">
       <c r="A107" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B107" s="160"/>
-      <c r="C107" s="160"/>
+      <c r="C107" s="216"/>
       <c r="D107" s="215"/>
       <c r="E107" s="216"/>
-      <c r="F107" s="216"/>
-      <c r="G107" s="217"/>
+      <c r="F107" s="217"/>
+      <c r="G107" s="215"/>
       <c r="H107" s="215"/>
       <c r="I107" s="215"/>
-      <c r="J107" s="215"/>
-      <c r="K107" s="81"/>
+      <c r="J107" s="236"/>
     </row>
     <row r="108" spans="1:11" s="80" customFormat="1">
       <c r="A108" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B108" s="160"/>
       <c r="C108" s="160"/>
@@ -8894,7 +8899,7 @@
     <row r="109" spans="1:11" s="80" customFormat="1">
       <c r="A109" s="193">
         <f t="shared" ca="1" si="1"/>
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B109" s="160"/>
       <c r="C109" s="160"/>
@@ -8908,16 +8913,19 @@
       <c r="K109" s="81"/>
     </row>
     <row r="110" spans="1:11" s="80" customFormat="1">
-      <c r="A110" s="32"/>
-      <c r="B110" s="154"/>
-      <c r="C110" s="154"/>
-      <c r="D110" s="148"/>
-      <c r="E110" s="145"/>
-      <c r="F110" s="145"/>
-      <c r="G110" s="147"/>
-      <c r="H110" s="148"/>
-      <c r="I110" s="148"/>
-      <c r="J110" s="148"/>
+      <c r="A110" s="193">
+        <f t="shared" ca="1" si="1"/>
+        <v>82</v>
+      </c>
+      <c r="B110" s="160"/>
+      <c r="C110" s="160"/>
+      <c r="D110" s="215"/>
+      <c r="E110" s="216"/>
+      <c r="F110" s="216"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="215"/>
+      <c r="I110" s="215"/>
+      <c r="J110" s="215"/>
       <c r="K110" s="81"/>
     </row>
     <row r="111" spans="1:11" s="80" customFormat="1">
@@ -8952,7 +8960,7 @@
       <c r="C113" s="154"/>
       <c r="D113" s="148"/>
       <c r="E113" s="145"/>
-      <c r="F113" s="156"/>
+      <c r="F113" s="145"/>
       <c r="G113" s="147"/>
       <c r="H113" s="148"/>
       <c r="I113" s="148"/>
@@ -8965,7 +8973,7 @@
       <c r="C114" s="154"/>
       <c r="D114" s="148"/>
       <c r="E114" s="145"/>
-      <c r="F114" s="145"/>
+      <c r="F114" s="156"/>
       <c r="G114" s="147"/>
       <c r="H114" s="148"/>
       <c r="I114" s="148"/>
@@ -8978,7 +8986,7 @@
       <c r="C115" s="154"/>
       <c r="D115" s="148"/>
       <c r="E115" s="145"/>
-      <c r="F115" s="148"/>
+      <c r="F115" s="145"/>
       <c r="G115" s="147"/>
       <c r="H115" s="148"/>
       <c r="I115" s="148"/>
@@ -9043,7 +9051,7 @@
       <c r="C120" s="154"/>
       <c r="D120" s="148"/>
       <c r="E120" s="145"/>
-      <c r="F120" s="145"/>
+      <c r="F120" s="148"/>
       <c r="G120" s="147"/>
       <c r="H120" s="148"/>
       <c r="I120" s="148"/>
@@ -9160,7 +9168,7 @@
       <c r="C129" s="154"/>
       <c r="D129" s="148"/>
       <c r="E129" s="145"/>
-      <c r="F129" s="148"/>
+      <c r="F129" s="145"/>
       <c r="G129" s="147"/>
       <c r="H129" s="148"/>
       <c r="I129" s="148"/>
@@ -9186,7 +9194,7 @@
       <c r="C131" s="154"/>
       <c r="D131" s="148"/>
       <c r="E131" s="145"/>
-      <c r="F131" s="145"/>
+      <c r="F131" s="148"/>
       <c r="G131" s="147"/>
       <c r="H131" s="148"/>
       <c r="I131" s="148"/>
@@ -9264,7 +9272,7 @@
       <c r="C137" s="154"/>
       <c r="D137" s="148"/>
       <c r="E137" s="145"/>
-      <c r="F137" s="148"/>
+      <c r="F137" s="145"/>
       <c r="G137" s="147"/>
       <c r="H137" s="148"/>
       <c r="I137" s="148"/>
@@ -9277,7 +9285,7 @@
       <c r="C138" s="154"/>
       <c r="D138" s="148"/>
       <c r="E138" s="145"/>
-      <c r="F138" s="145"/>
+      <c r="F138" s="148"/>
       <c r="G138" s="147"/>
       <c r="H138" s="148"/>
       <c r="I138" s="148"/>
@@ -9290,7 +9298,7 @@
       <c r="C139" s="154"/>
       <c r="D139" s="148"/>
       <c r="E139" s="145"/>
-      <c r="F139" s="148"/>
+      <c r="F139" s="145"/>
       <c r="G139" s="147"/>
       <c r="H139" s="148"/>
       <c r="I139" s="148"/>
@@ -9316,7 +9324,7 @@
       <c r="C141" s="154"/>
       <c r="D141" s="148"/>
       <c r="E141" s="145"/>
-      <c r="F141" s="145"/>
+      <c r="F141" s="148"/>
       <c r="G141" s="147"/>
       <c r="H141" s="148"/>
       <c r="I141" s="148"/>
@@ -9342,7 +9350,7 @@
       <c r="C143" s="154"/>
       <c r="D143" s="148"/>
       <c r="E143" s="145"/>
-      <c r="F143" s="148"/>
+      <c r="F143" s="145"/>
       <c r="G143" s="147"/>
       <c r="H143" s="148"/>
       <c r="I143" s="148"/>
@@ -9420,7 +9428,7 @@
       <c r="C149" s="154"/>
       <c r="D149" s="148"/>
       <c r="E149" s="145"/>
-      <c r="F149" s="145"/>
+      <c r="F149" s="148"/>
       <c r="G149" s="147"/>
       <c r="H149" s="148"/>
       <c r="I149" s="148"/>
@@ -9466,59 +9474,60 @@
       <c r="J152" s="148"/>
       <c r="K152" s="81"/>
     </row>
-    <row r="153" spans="1:11" s="80" customFormat="1" ht="14.25">
+    <row r="153" spans="1:11" s="80" customFormat="1">
       <c r="A153" s="32"/>
-      <c r="B153" s="155"/>
-      <c r="C153" s="155"/>
-      <c r="D153" s="161"/>
-      <c r="E153" s="155"/>
-      <c r="F153" s="155"/>
-      <c r="G153" s="155"/>
-      <c r="H153" s="155"/>
-      <c r="I153" s="155"/>
-      <c r="J153" s="155"/>
+      <c r="B153" s="154"/>
+      <c r="C153" s="154"/>
+      <c r="D153" s="148"/>
+      <c r="E153" s="145"/>
+      <c r="F153" s="145"/>
+      <c r="G153" s="147"/>
+      <c r="H153" s="148"/>
+      <c r="I153" s="148"/>
+      <c r="J153" s="148"/>
       <c r="K153" s="81"/>
     </row>
-    <row r="154" spans="1:11" s="80" customFormat="1">
+    <row r="154" spans="1:11" s="80" customFormat="1" ht="14.25">
       <c r="A154" s="32"/>
-      <c r="B154" s="154"/>
-      <c r="C154" s="154"/>
-      <c r="D154" s="148"/>
-      <c r="E154" s="145"/>
-      <c r="F154" s="145"/>
-      <c r="G154" s="147"/>
-      <c r="H154" s="148"/>
-      <c r="I154" s="148"/>
-      <c r="J154" s="148"/>
+      <c r="B154" s="155"/>
+      <c r="C154" s="155"/>
+      <c r="D154" s="161"/>
+      <c r="E154" s="155"/>
+      <c r="F154" s="155"/>
+      <c r="G154" s="155"/>
+      <c r="H154" s="155"/>
+      <c r="I154" s="155"/>
+      <c r="J154" s="155"/>
       <c r="K154" s="81"/>
     </row>
-    <row r="155" spans="1:11" s="80" customFormat="1" ht="14.25">
+    <row r="155" spans="1:11" s="80" customFormat="1">
       <c r="A155" s="32"/>
-      <c r="B155" s="155"/>
-      <c r="C155" s="155"/>
-      <c r="D155" s="161"/>
-      <c r="E155" s="155"/>
-      <c r="F155" s="155"/>
-      <c r="G155" s="155"/>
-      <c r="H155" s="155"/>
-      <c r="I155" s="155"/>
-      <c r="J155" s="155"/>
+      <c r="B155" s="154"/>
+      <c r="C155" s="154"/>
+      <c r="D155" s="148"/>
+      <c r="E155" s="145"/>
+      <c r="F155" s="145"/>
+      <c r="G155" s="147"/>
+      <c r="H155" s="148"/>
+      <c r="I155" s="148"/>
+      <c r="J155" s="148"/>
       <c r="K155" s="81"/>
     </row>
-    <row r="156" spans="1:11" s="80" customFormat="1">
+    <row r="156" spans="1:11" s="80" customFormat="1" ht="14.25">
       <c r="A156" s="32"/>
-      <c r="B156" s="154"/>
-      <c r="C156" s="145"/>
-      <c r="D156" s="148"/>
-      <c r="E156" s="145"/>
-      <c r="F156" s="147"/>
-      <c r="G156" s="148"/>
-      <c r="H156" s="148"/>
-      <c r="I156" s="148"/>
-      <c r="J156" s="149"/>
+      <c r="B156" s="155"/>
+      <c r="C156" s="155"/>
+      <c r="D156" s="161"/>
+      <c r="E156" s="155"/>
+      <c r="F156" s="155"/>
+      <c r="G156" s="155"/>
+      <c r="H156" s="155"/>
+      <c r="I156" s="155"/>
+      <c r="J156" s="155"/>
+      <c r="K156" s="81"/>
     </row>
     <row r="157" spans="1:11" s="80" customFormat="1">
-      <c r="A157" s="82"/>
+      <c r="A157" s="32"/>
       <c r="B157" s="154"/>
       <c r="C157" s="145"/>
       <c r="D157" s="148"/>
@@ -9532,7 +9541,7 @@
     <row r="158" spans="1:11" s="80" customFormat="1">
       <c r="A158" s="82"/>
       <c r="B158" s="154"/>
-      <c r="C158" s="146"/>
+      <c r="C158" s="145"/>
       <c r="D158" s="148"/>
       <c r="E158" s="145"/>
       <c r="F158" s="147"/>
@@ -9568,7 +9577,7 @@
     <row r="161" spans="1:10" s="80" customFormat="1">
       <c r="A161" s="82"/>
       <c r="B161" s="154"/>
-      <c r="C161" s="145"/>
+      <c r="C161" s="146"/>
       <c r="D161" s="148"/>
       <c r="E161" s="145"/>
       <c r="F161" s="147"/>
@@ -9577,12 +9586,12 @@
       <c r="I161" s="148"/>
       <c r="J161" s="149"/>
     </row>
-    <row r="162" spans="1:10" s="84" customFormat="1">
+    <row r="162" spans="1:10" s="80" customFormat="1">
       <c r="A162" s="82"/>
-      <c r="B162" s="265"/>
-      <c r="C162" s="265"/>
-      <c r="D162" s="265"/>
-      <c r="E162" s="157"/>
+      <c r="B162" s="154"/>
+      <c r="C162" s="145"/>
+      <c r="D162" s="148"/>
+      <c r="E162" s="145"/>
       <c r="F162" s="147"/>
       <c r="G162" s="148"/>
       <c r="H162" s="148"/>
@@ -9591,10 +9600,10 @@
     </row>
     <row r="163" spans="1:10" s="84" customFormat="1">
       <c r="A163" s="82"/>
-      <c r="B163" s="150"/>
-      <c r="C163" s="151"/>
-      <c r="D163" s="151"/>
-      <c r="E163" s="151"/>
+      <c r="B163" s="265"/>
+      <c r="C163" s="265"/>
+      <c r="D163" s="265"/>
+      <c r="E163" s="157"/>
       <c r="F163" s="147"/>
       <c r="G163" s="148"/>
       <c r="H163" s="148"/>
@@ -9686,7 +9695,7 @@
       <c r="J170" s="149"/>
     </row>
     <row r="171" spans="1:10" s="84" customFormat="1">
-      <c r="A171" s="85"/>
+      <c r="A171" s="82"/>
       <c r="B171" s="150"/>
       <c r="C171" s="151"/>
       <c r="D171" s="151"/>
@@ -9715,11 +9724,11 @@
       <c r="C173" s="151"/>
       <c r="D173" s="151"/>
       <c r="E173" s="151"/>
-      <c r="F173" s="152"/>
-      <c r="G173" s="153"/>
-      <c r="H173" s="153"/>
-      <c r="I173" s="153"/>
-      <c r="J173" s="152"/>
+      <c r="F173" s="147"/>
+      <c r="G173" s="148"/>
+      <c r="H173" s="148"/>
+      <c r="I173" s="148"/>
+      <c r="J173" s="149"/>
     </row>
     <row r="174" spans="1:10" s="84" customFormat="1">
       <c r="A174" s="85"/>
@@ -9727,11 +9736,11 @@
       <c r="C174" s="151"/>
       <c r="D174" s="151"/>
       <c r="E174" s="151"/>
-      <c r="F174" s="147"/>
-      <c r="G174" s="148"/>
-      <c r="H174" s="148"/>
-      <c r="I174" s="148"/>
-      <c r="J174" s="149"/>
+      <c r="F174" s="152"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="153"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="152"/>
     </row>
     <row r="175" spans="1:10" s="84" customFormat="1">
       <c r="A175" s="85"/>
@@ -9775,23 +9784,23 @@
       <c r="C178" s="151"/>
       <c r="D178" s="151"/>
       <c r="E178" s="151"/>
-      <c r="F178" s="152"/>
-      <c r="G178" s="153"/>
-      <c r="H178" s="153"/>
-      <c r="I178" s="153"/>
-      <c r="J178" s="152"/>
+      <c r="F178" s="147"/>
+      <c r="G178" s="148"/>
+      <c r="H178" s="148"/>
+      <c r="I178" s="148"/>
+      <c r="J178" s="149"/>
     </row>
     <row r="179" spans="1:10" s="84" customFormat="1">
-      <c r="A179" s="83"/>
+      <c r="A179" s="85"/>
       <c r="B179" s="150"/>
       <c r="C179" s="151"/>
       <c r="D179" s="151"/>
       <c r="E179" s="151"/>
-      <c r="F179" s="147"/>
-      <c r="G179" s="148"/>
-      <c r="H179" s="148"/>
-      <c r="I179" s="148"/>
-      <c r="J179" s="149"/>
+      <c r="F179" s="152"/>
+      <c r="G179" s="153"/>
+      <c r="H179" s="153"/>
+      <c r="I179" s="153"/>
+      <c r="J179" s="152"/>
     </row>
     <row r="180" spans="1:10" s="84" customFormat="1">
       <c r="A180" s="83"/>
@@ -9818,28 +9827,28 @@
       <c r="J181" s="149"/>
     </row>
     <row r="182" spans="1:10" s="84" customFormat="1">
-      <c r="A182" s="86"/>
+      <c r="A182" s="83"/>
       <c r="B182" s="150"/>
       <c r="C182" s="151"/>
       <c r="D182" s="151"/>
       <c r="E182" s="151"/>
-      <c r="F182" s="152"/>
-      <c r="G182" s="153"/>
-      <c r="H182" s="153"/>
-      <c r="I182" s="153"/>
-      <c r="J182" s="152"/>
+      <c r="F182" s="147"/>
+      <c r="G182" s="148"/>
+      <c r="H182" s="148"/>
+      <c r="I182" s="148"/>
+      <c r="J182" s="149"/>
     </row>
     <row r="183" spans="1:10" s="84" customFormat="1">
-      <c r="A183" s="83"/>
-      <c r="B183" s="154"/>
-      <c r="C183" s="148"/>
-      <c r="D183" s="147"/>
-      <c r="E183" s="147"/>
-      <c r="F183" s="147"/>
-      <c r="G183" s="148"/>
-      <c r="H183" s="148"/>
-      <c r="I183" s="148"/>
-      <c r="J183" s="149"/>
+      <c r="A183" s="86"/>
+      <c r="B183" s="150"/>
+      <c r="C183" s="151"/>
+      <c r="D183" s="151"/>
+      <c r="E183" s="151"/>
+      <c r="F183" s="152"/>
+      <c r="G183" s="153"/>
+      <c r="H183" s="153"/>
+      <c r="I183" s="153"/>
+      <c r="J183" s="152"/>
     </row>
     <row r="184" spans="1:10" s="84" customFormat="1">
       <c r="A184" s="83"/>
@@ -9961,29 +9970,29 @@
       <c r="I193" s="148"/>
       <c r="J193" s="149"/>
     </row>
-    <row r="194" spans="1:10" s="84" customFormat="1" ht="14.25">
-      <c r="A194" s="86"/>
-      <c r="B194" s="264"/>
-      <c r="C194" s="264"/>
-      <c r="D194" s="264"/>
-      <c r="E194" s="158"/>
-      <c r="F194" s="152"/>
-      <c r="G194" s="153"/>
-      <c r="H194" s="153"/>
-      <c r="I194" s="153"/>
-      <c r="J194" s="152"/>
-    </row>
-    <row r="195" spans="1:10" s="84" customFormat="1">
-      <c r="A195" s="83"/>
-      <c r="B195" s="154"/>
-      <c r="C195" s="148"/>
-      <c r="D195" s="147"/>
-      <c r="E195" s="147"/>
-      <c r="F195" s="147"/>
-      <c r="G195" s="148"/>
-      <c r="H195" s="148"/>
-      <c r="I195" s="148"/>
-      <c r="J195" s="149"/>
+    <row r="194" spans="1:10" s="84" customFormat="1">
+      <c r="A194" s="83"/>
+      <c r="B194" s="154"/>
+      <c r="C194" s="148"/>
+      <c r="D194" s="147"/>
+      <c r="E194" s="147"/>
+      <c r="F194" s="147"/>
+      <c r="G194" s="148"/>
+      <c r="H194" s="148"/>
+      <c r="I194" s="148"/>
+      <c r="J194" s="149"/>
+    </row>
+    <row r="195" spans="1:10" s="84" customFormat="1" ht="14.25">
+      <c r="A195" s="86"/>
+      <c r="B195" s="264"/>
+      <c r="C195" s="264"/>
+      <c r="D195" s="264"/>
+      <c r="E195" s="158"/>
+      <c r="F195" s="152"/>
+      <c r="G195" s="153"/>
+      <c r="H195" s="153"/>
+      <c r="I195" s="153"/>
+      <c r="J195" s="152"/>
     </row>
     <row r="196" spans="1:10" s="84" customFormat="1">
       <c r="A196" s="83"/>
@@ -10009,29 +10018,29 @@
       <c r="I197" s="148"/>
       <c r="J197" s="149"/>
     </row>
-    <row r="198" spans="1:10" s="84" customFormat="1" ht="14.25">
-      <c r="A198" s="86"/>
-      <c r="B198" s="264"/>
-      <c r="C198" s="264"/>
-      <c r="D198" s="264"/>
-      <c r="E198" s="158"/>
-      <c r="F198" s="152"/>
-      <c r="G198" s="153"/>
-      <c r="H198" s="153"/>
-      <c r="I198" s="153"/>
-      <c r="J198" s="152"/>
-    </row>
-    <row r="199" spans="1:10" s="84" customFormat="1">
-      <c r="A199" s="83"/>
-      <c r="B199" s="154"/>
-      <c r="C199" s="148"/>
-      <c r="D199" s="147"/>
-      <c r="E199" s="147"/>
-      <c r="F199" s="147"/>
-      <c r="G199" s="148"/>
-      <c r="H199" s="148"/>
-      <c r="I199" s="148"/>
-      <c r="J199" s="149"/>
+    <row r="198" spans="1:10" s="84" customFormat="1">
+      <c r="A198" s="83"/>
+      <c r="B198" s="154"/>
+      <c r="C198" s="148"/>
+      <c r="D198" s="147"/>
+      <c r="E198" s="147"/>
+      <c r="F198" s="147"/>
+      <c r="G198" s="148"/>
+      <c r="H198" s="148"/>
+      <c r="I198" s="148"/>
+      <c r="J198" s="149"/>
+    </row>
+    <row r="199" spans="1:10" s="84" customFormat="1" ht="14.25">
+      <c r="A199" s="86"/>
+      <c r="B199" s="264"/>
+      <c r="C199" s="264"/>
+      <c r="D199" s="264"/>
+      <c r="E199" s="158"/>
+      <c r="F199" s="152"/>
+      <c r="G199" s="153"/>
+      <c r="H199" s="153"/>
+      <c r="I199" s="153"/>
+      <c r="J199" s="152"/>
     </row>
     <row r="200" spans="1:10" s="84" customFormat="1">
       <c r="A200" s="83"/>
@@ -10057,29 +10066,29 @@
       <c r="I201" s="148"/>
       <c r="J201" s="149"/>
     </row>
-    <row r="202" spans="1:10" s="84" customFormat="1" ht="14.25">
-      <c r="A202" s="86"/>
-      <c r="B202" s="264"/>
-      <c r="C202" s="264"/>
-      <c r="D202" s="264"/>
-      <c r="E202" s="158"/>
-      <c r="F202" s="152"/>
-      <c r="G202" s="153"/>
-      <c r="H202" s="153"/>
-      <c r="I202" s="153"/>
-      <c r="J202" s="152"/>
-    </row>
-    <row r="203" spans="1:10" s="84" customFormat="1">
-      <c r="A203" s="83"/>
-      <c r="B203" s="154"/>
-      <c r="C203" s="148"/>
-      <c r="D203" s="147"/>
-      <c r="E203" s="147"/>
-      <c r="F203" s="147"/>
-      <c r="G203" s="148"/>
-      <c r="H203" s="148"/>
-      <c r="I203" s="148"/>
-      <c r="J203" s="149"/>
+    <row r="202" spans="1:10" s="84" customFormat="1">
+      <c r="A202" s="83"/>
+      <c r="B202" s="154"/>
+      <c r="C202" s="148"/>
+      <c r="D202" s="147"/>
+      <c r="E202" s="147"/>
+      <c r="F202" s="147"/>
+      <c r="G202" s="148"/>
+      <c r="H202" s="148"/>
+      <c r="I202" s="148"/>
+      <c r="J202" s="149"/>
+    </row>
+    <row r="203" spans="1:10" s="84" customFormat="1" ht="14.25">
+      <c r="A203" s="86"/>
+      <c r="B203" s="264"/>
+      <c r="C203" s="264"/>
+      <c r="D203" s="264"/>
+      <c r="E203" s="158"/>
+      <c r="F203" s="152"/>
+      <c r="G203" s="153"/>
+      <c r="H203" s="153"/>
+      <c r="I203" s="153"/>
+      <c r="J203" s="152"/>
     </row>
     <row r="204" spans="1:10" s="84" customFormat="1">
       <c r="A204" s="83"/>
@@ -10093,29 +10102,29 @@
       <c r="I204" s="148"/>
       <c r="J204" s="149"/>
     </row>
-    <row r="205" spans="1:10" s="84" customFormat="1" ht="14.25">
-      <c r="A205" s="86"/>
-      <c r="B205" s="264"/>
-      <c r="C205" s="264"/>
-      <c r="D205" s="264"/>
-      <c r="E205" s="158"/>
-      <c r="F205" s="152"/>
-      <c r="G205" s="153"/>
-      <c r="H205" s="153"/>
-      <c r="I205" s="153"/>
-      <c r="J205" s="152"/>
-    </row>
-    <row r="206" spans="1:10" s="84" customFormat="1">
-      <c r="A206" s="83"/>
-      <c r="B206" s="154"/>
-      <c r="C206" s="148"/>
-      <c r="D206" s="147"/>
-      <c r="E206" s="147"/>
-      <c r="F206" s="147"/>
-      <c r="G206" s="148"/>
-      <c r="H206" s="148"/>
-      <c r="I206" s="148"/>
-      <c r="J206" s="149"/>
+    <row r="205" spans="1:10" s="84" customFormat="1">
+      <c r="A205" s="83"/>
+      <c r="B205" s="154"/>
+      <c r="C205" s="148"/>
+      <c r="D205" s="147"/>
+      <c r="E205" s="147"/>
+      <c r="F205" s="147"/>
+      <c r="G205" s="148"/>
+      <c r="H205" s="148"/>
+      <c r="I205" s="148"/>
+      <c r="J205" s="149"/>
+    </row>
+    <row r="206" spans="1:10" s="84" customFormat="1" ht="14.25">
+      <c r="A206" s="86"/>
+      <c r="B206" s="264"/>
+      <c r="C206" s="264"/>
+      <c r="D206" s="264"/>
+      <c r="E206" s="158"/>
+      <c r="F206" s="152"/>
+      <c r="G206" s="153"/>
+      <c r="H206" s="153"/>
+      <c r="I206" s="153"/>
+      <c r="J206" s="152"/>
     </row>
     <row r="207" spans="1:10" s="84" customFormat="1">
       <c r="A207" s="83"/>
@@ -10165,13 +10174,25 @@
       <c r="I210" s="148"/>
       <c r="J210" s="149"/>
     </row>
+    <row r="211" spans="1:10" s="84" customFormat="1">
+      <c r="A211" s="83"/>
+      <c r="B211" s="154"/>
+      <c r="C211" s="148"/>
+      <c r="D211" s="147"/>
+      <c r="E211" s="147"/>
+      <c r="F211" s="147"/>
+      <c r="G211" s="148"/>
+      <c r="H211" s="148"/>
+      <c r="I211" s="148"/>
+      <c r="J211" s="149"/>
+    </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B205:D205"/>
-    <mergeCell ref="B162:D162"/>
-    <mergeCell ref="B194:D194"/>
-    <mergeCell ref="B198:D198"/>
-    <mergeCell ref="B202:D202"/>
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B203:D203"/>
     <mergeCell ref="B5:D5"/>
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="B7:D7"/>
@@ -10192,11 +10213,11 @@
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G211:I268">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="G212:I269">
       <formula1>#REF!</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="G156:I210 H107:J155 G19:I106">
+    <dataValidation type="list" allowBlank="1" sqref="G157:I211 H108:J156 G19:I107">
       <formula1>$A$11:$A$15</formula1>
       <formula2>0</formula2>
     </dataValidation>

--- a/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="405">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="408">
   <si>
     <r>
       <rPr>
@@ -1979,6 +1979,18 @@
   <si>
     <t>Check District by select
 abcyxz</t>
+  </si>
+  <si>
+    <t>close add screen
+new address displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Address is saved successfully and displayed on the top of Address Book
+displayed you paste
+</t>
+  </si>
+  <si>
+    <t>cho pheps dung phim mui ten len xuong, cho phep go 1 chu de tim kiesm</t>
   </si>
 </sst>
 </file>
@@ -3587,6 +3599,12 @@
     <xf numFmtId="0" fontId="61" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="63" fillId="17" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="67" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="7" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3605,6 +3623,18 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3617,18 +3647,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3641,6 +3659,21 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="63" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -3653,20 +3686,35 @@
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="63" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3676,42 +3724,6 @@
     </xf>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="15" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="17" borderId="17" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="67" fillId="17" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4844,8 +4856,7 @@
                   <c:v>4. Address display nothing and show error message below the Address field</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1. Placeholder displays "Please choose your province"
-1.2. Province field is blank</c:v>
+                  <c:v>cho pheps dung phim mui ten len xuong </c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3. Show error message"Please select your Province " below the Province field</c:v>
@@ -5704,37 +5715,37 @@
       <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1">
-      <c r="A4" s="241" t="s">
+      <c r="A4" s="243" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="241"/>
-      <c r="C4" s="241"/>
-      <c r="D4" s="241"/>
-      <c r="E4" s="241"/>
+      <c r="B4" s="243"/>
+      <c r="C4" s="243"/>
+      <c r="D4" s="243"/>
+      <c r="E4" s="243"/>
       <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="14.25" customHeight="1">
-      <c r="A5" s="242" t="s">
+      <c r="A5" s="244" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="242"/>
-      <c r="C5" s="243" t="s">
+      <c r="B5" s="244"/>
+      <c r="C5" s="245" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="243"/>
-      <c r="E5" s="243"/>
+      <c r="D5" s="245"/>
+      <c r="E5" s="245"/>
       <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="246" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="244"/>
-      <c r="C6" s="240" t="s">
+      <c r="B6" s="246"/>
+      <c r="C6" s="242" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="240"/>
-      <c r="E6" s="240"/>
+      <c r="D6" s="242"/>
+      <c r="E6" s="242"/>
       <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1">
@@ -5746,14 +5757,14 @@
       <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" s="9" customFormat="1" ht="29.25" customHeight="1">
-      <c r="A8" s="239" t="s">
+      <c r="A8" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="239"/>
-      <c r="C8" s="239"/>
-      <c r="D8" s="239"/>
-      <c r="E8" s="239"/>
-      <c r="F8" s="239"/>
+      <c r="B8" s="241"/>
+      <c r="C8" s="241"/>
+      <c r="D8" s="241"/>
+      <c r="E8" s="241"/>
+      <c r="F8" s="241"/>
     </row>
     <row r="9" spans="1:6" s="9" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="10" t="s">
@@ -5836,14 +5847,14 @@
       </c>
     </row>
     <row r="13" spans="1:6" s="9" customFormat="1" ht="30" customHeight="1">
-      <c r="A13" s="240" t="s">
+      <c r="A13" s="242" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="240"/>
-      <c r="C13" s="240"/>
-      <c r="D13" s="240"/>
-      <c r="E13" s="240"/>
-      <c r="F13" s="240"/>
+      <c r="B13" s="242"/>
+      <c r="C13" s="242"/>
+      <c r="D13" s="242"/>
+      <c r="E13" s="242"/>
+      <c r="F13" s="242"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="6"/>
@@ -5966,36 +5977,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="245" t="s">
+      <c r="B2" s="251" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="245"/>
-      <c r="D2" s="245"/>
-      <c r="E2" s="245"/>
-      <c r="F2" s="245"/>
-      <c r="G2" s="245"/>
-      <c r="H2" s="245"/>
-      <c r="I2" s="245"/>
-      <c r="J2" s="246" t="s">
+      <c r="C2" s="251"/>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
+      <c r="J2" s="252" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="246"/>
+      <c r="K2" s="252"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="247" t="s">
+      <c r="B3" s="253" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="247"/>
-      <c r="D3" s="247"/>
-      <c r="E3" s="247"/>
-      <c r="F3" s="248" t="s">
+      <c r="C3" s="253"/>
+      <c r="D3" s="253"/>
+      <c r="E3" s="253"/>
+      <c r="F3" s="254" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="248"/>
-      <c r="H3" s="248"/>
-      <c r="I3" s="248"/>
-      <c r="J3" s="246"/>
-      <c r="K3" s="246"/>
+      <c r="G3" s="254"/>
+      <c r="H3" s="254"/>
+      <c r="I3" s="254"/>
+      <c r="J3" s="252"/>
+      <c r="K3" s="252"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -6095,65 +6106,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="251" t="s">
+      <c r="B14" s="247" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="251"/>
-      <c r="D14" s="251"/>
-      <c r="E14" s="251"/>
-      <c r="F14" s="251"/>
-      <c r="G14" s="251"/>
-      <c r="H14" s="251"/>
-      <c r="I14" s="251"/>
-      <c r="J14" s="251"/>
-      <c r="K14" s="251"/>
+      <c r="C14" s="247"/>
+      <c r="D14" s="247"/>
+      <c r="E14" s="247"/>
+      <c r="F14" s="247"/>
+      <c r="G14" s="247"/>
+      <c r="H14" s="247"/>
+      <c r="I14" s="247"/>
+      <c r="J14" s="247"/>
+      <c r="K14" s="247"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="251" t="s">
+      <c r="B15" s="247" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="251"/>
-      <c r="D15" s="251"/>
-      <c r="E15" s="251"/>
-      <c r="F15" s="251"/>
-      <c r="G15" s="251"/>
-      <c r="H15" s="251"/>
-      <c r="I15" s="251"/>
-      <c r="J15" s="251"/>
-      <c r="K15" s="251"/>
+      <c r="C15" s="247"/>
+      <c r="D15" s="247"/>
+      <c r="E15" s="247"/>
+      <c r="F15" s="247"/>
+      <c r="G15" s="247"/>
+      <c r="H15" s="247"/>
+      <c r="I15" s="247"/>
+      <c r="J15" s="247"/>
+      <c r="K15" s="247"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="251" t="s">
+      <c r="B16" s="247" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="251"/>
-      <c r="D16" s="251"/>
-      <c r="E16" s="251"/>
-      <c r="F16" s="251"/>
-      <c r="G16" s="251"/>
-      <c r="H16" s="251"/>
-      <c r="I16" s="251"/>
-      <c r="J16" s="251"/>
-      <c r="K16" s="251"/>
+      <c r="C16" s="247"/>
+      <c r="D16" s="247"/>
+      <c r="E16" s="247"/>
+      <c r="F16" s="247"/>
+      <c r="G16" s="247"/>
+      <c r="H16" s="247"/>
+      <c r="I16" s="247"/>
+      <c r="J16" s="247"/>
+      <c r="K16" s="247"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="251" t="s">
+      <c r="B17" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="251"/>
-      <c r="D17" s="251"/>
-      <c r="E17" s="251"/>
-      <c r="F17" s="251"/>
-      <c r="G17" s="251"/>
-      <c r="H17" s="251"/>
-      <c r="I17" s="251"/>
-      <c r="J17" s="251"/>
-      <c r="K17" s="251"/>
+      <c r="C17" s="247"/>
+      <c r="D17" s="247"/>
+      <c r="E17" s="247"/>
+      <c r="F17" s="247"/>
+      <c r="G17" s="247"/>
+      <c r="H17" s="247"/>
+      <c r="I17" s="247"/>
+      <c r="J17" s="247"/>
+      <c r="K17" s="247"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -6164,40 +6175,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="251" t="s">
+      <c r="B20" s="247" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="251"/>
-      <c r="D20" s="251"/>
-      <c r="E20" s="251"/>
-      <c r="F20" s="251"/>
-      <c r="G20" s="251"/>
+      <c r="C20" s="247"/>
+      <c r="D20" s="247"/>
+      <c r="E20" s="247"/>
+      <c r="F20" s="247"/>
+      <c r="G20" s="247"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="251" t="s">
+      <c r="B21" s="247" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="251"/>
-      <c r="D21" s="251"/>
-      <c r="E21" s="251"/>
-      <c r="F21" s="251"/>
-      <c r="G21" s="251"/>
+      <c r="C21" s="247"/>
+      <c r="D21" s="247"/>
+      <c r="E21" s="247"/>
+      <c r="F21" s="247"/>
+      <c r="G21" s="247"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="251" t="s">
+      <c r="B22" s="247" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="251"/>
-      <c r="D22" s="251"/>
-      <c r="E22" s="251"/>
-      <c r="F22" s="251"/>
-      <c r="G22" s="251"/>
+      <c r="C22" s="247"/>
+      <c r="D22" s="247"/>
+      <c r="E22" s="247"/>
+      <c r="F22" s="247"/>
+      <c r="G22" s="247"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -6256,11 +6267,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="252" t="s">
+      <c r="B29" s="248" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
+      <c r="C29" s="248"/>
+      <c r="D29" s="248"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -6283,21 +6294,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="J2:K3"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="F3:I3"/>
+    <mergeCell ref="A7:I8"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B17:K17"/>
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="J2:K3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="F3:I3"/>
-    <mergeCell ref="A7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6337,14 +6348,14 @@
       <c r="J1" s="39"/>
     </row>
     <row r="2" spans="1:10" s="40" customFormat="1" ht="25.5">
-      <c r="A2" s="253" t="s">
+      <c r="A2" s="255" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="253"/>
-      <c r="C2" s="253"/>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
+      <c r="B2" s="255"/>
+      <c r="C2" s="255"/>
+      <c r="D2" s="255"/>
+      <c r="E2" s="255"/>
+      <c r="F2" s="255"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="41"/>
@@ -6527,12 +6538,12 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="254" t="s">
+      <c r="A2" s="256" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="254"/>
-      <c r="C2" s="254"/>
-      <c r="D2" s="254"/>
+      <c r="B2" s="256"/>
+      <c r="C2" s="256"/>
+      <c r="D2" s="256"/>
       <c r="E2" s="55"/>
       <c r="F2" s="56"/>
       <c r="G2" s="56"/>
@@ -6693,18 +6704,18 @@
       <c r="F14" s="62"/>
     </row>
     <row r="16" spans="1:11" ht="15" customHeight="1">
-      <c r="A16" s="255" t="s">
+      <c r="A16" s="257" t="s">
         <v>91</v>
       </c>
-      <c r="B16" s="255"/>
+      <c r="B16" s="257"/>
       <c r="C16" s="65"/>
       <c r="D16" s="66"/>
     </row>
     <row r="17" spans="1:4" ht="14.25" customHeight="1">
-      <c r="A17" s="256" t="s">
+      <c r="A17" s="258" t="s">
         <v>92</v>
       </c>
-      <c r="B17" s="256"/>
+      <c r="B17" s="258"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="67"/>
@@ -6751,8 +6762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A74" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6769,10 +6780,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="257"/>
-      <c r="B1" s="257"/>
-      <c r="C1" s="257"/>
-      <c r="D1" s="257"/>
+      <c r="A1" s="264"/>
+      <c r="B1" s="264"/>
+      <c r="C1" s="264"/>
+      <c r="D1" s="264"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6782,14 +6793,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="258" t="s">
+      <c r="A2" s="265" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="258"/>
-      <c r="C2" s="258"/>
-      <c r="D2" s="258"/>
+      <c r="B2" s="265"/>
+      <c r="C2" s="265"/>
+      <c r="D2" s="265"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="259"/>
+      <c r="F2" s="266"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6799,10 +6810,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="260"/>
-      <c r="D3" s="260"/>
+      <c r="C3" s="267"/>
+      <c r="D3" s="267"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="259"/>
+      <c r="F3" s="266"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -7131,7 +7142,9 @@
       <c r="D20" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="E20" s="200"/>
+      <c r="E20" s="201" t="s">
+        <v>405</v>
+      </c>
       <c r="F20" s="201"/>
       <c r="G20" s="193"/>
       <c r="H20" s="193"/>
@@ -7339,7 +7352,7 @@
         <v>383</v>
       </c>
       <c r="D30" s="201" t="s">
-        <v>381</v>
+        <v>406</v>
       </c>
       <c r="E30" s="206"/>
       <c r="F30" s="204"/>
@@ -7926,7 +7939,9 @@
       <c r="D59" s="214" t="s">
         <v>273</v>
       </c>
-      <c r="E59" s="200"/>
+      <c r="E59" s="200" t="s">
+        <v>407</v>
+      </c>
       <c r="F59" s="200"/>
       <c r="G59" s="193"/>
       <c r="H59" s="193"/>
@@ -8574,7 +8589,7 @@
       <c r="D91" s="229" t="s">
         <v>402</v>
       </c>
-      <c r="E91" s="280"/>
+      <c r="E91" s="240"/>
       <c r="F91" s="210"/>
       <c r="G91" s="193"/>
       <c r="H91" s="193"/>
@@ -8798,7 +8813,7 @@
       <c r="D102" s="215" t="s">
         <v>391</v>
       </c>
-      <c r="E102" s="279"/>
+      <c r="E102" s="239"/>
       <c r="F102" s="217"/>
       <c r="G102" s="215"/>
       <c r="H102" s="215"/>
@@ -9600,9 +9615,9 @@
     </row>
     <row r="163" spans="1:10" s="84" customFormat="1">
       <c r="A163" s="82"/>
-      <c r="B163" s="265"/>
-      <c r="C163" s="265"/>
-      <c r="D163" s="265"/>
+      <c r="B163" s="260"/>
+      <c r="C163" s="260"/>
+      <c r="D163" s="260"/>
       <c r="E163" s="157"/>
       <c r="F163" s="147"/>
       <c r="G163" s="148"/>
@@ -9984,9 +9999,9 @@
     </row>
     <row r="195" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A195" s="86"/>
-      <c r="B195" s="264"/>
-      <c r="C195" s="264"/>
-      <c r="D195" s="264"/>
+      <c r="B195" s="259"/>
+      <c r="C195" s="259"/>
+      <c r="D195" s="259"/>
       <c r="E195" s="158"/>
       <c r="F195" s="152"/>
       <c r="G195" s="153"/>
@@ -10032,9 +10047,9 @@
     </row>
     <row r="199" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A199" s="86"/>
-      <c r="B199" s="264"/>
-      <c r="C199" s="264"/>
-      <c r="D199" s="264"/>
+      <c r="B199" s="259"/>
+      <c r="C199" s="259"/>
+      <c r="D199" s="259"/>
       <c r="E199" s="158"/>
       <c r="F199" s="152"/>
       <c r="G199" s="153"/>
@@ -10080,9 +10095,9 @@
     </row>
     <row r="203" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A203" s="86"/>
-      <c r="B203" s="264"/>
-      <c r="C203" s="264"/>
-      <c r="D203" s="264"/>
+      <c r="B203" s="259"/>
+      <c r="C203" s="259"/>
+      <c r="D203" s="259"/>
       <c r="E203" s="158"/>
       <c r="F203" s="152"/>
       <c r="G203" s="153"/>
@@ -10116,9 +10131,9 @@
     </row>
     <row r="206" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A206" s="86"/>
-      <c r="B206" s="264"/>
-      <c r="C206" s="264"/>
-      <c r="D206" s="264"/>
+      <c r="B206" s="259"/>
+      <c r="C206" s="259"/>
+      <c r="D206" s="259"/>
       <c r="E206" s="158"/>
       <c r="F206" s="152"/>
       <c r="G206" s="153"/>
@@ -10188,21 +10203,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="B206:D206"/>
     <mergeCell ref="B163:D163"/>
     <mergeCell ref="B195:D195"/>
     <mergeCell ref="B199:D199"/>
     <mergeCell ref="B203:D203"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="B4:D4"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17">
@@ -10266,13 +10281,13 @@
     </row>
     <row r="2" spans="1:12" s="92" customFormat="1" ht="26.25">
       <c r="A2" s="91"/>
-      <c r="C2" s="266" t="s">
+      <c r="C2" s="278" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="266"/>
-      <c r="E2" s="266"/>
-      <c r="F2" s="266"/>
-      <c r="G2" s="266"/>
+      <c r="D2" s="278"/>
+      <c r="E2" s="278"/>
+      <c r="F2" s="278"/>
+      <c r="G2" s="278"/>
       <c r="H2" s="93" t="s">
         <v>110</v>
       </c>
@@ -10283,15 +10298,15 @@
     </row>
     <row r="3" spans="1:12" s="92" customFormat="1" ht="23.25">
       <c r="A3" s="91"/>
-      <c r="C3" s="267" t="s">
+      <c r="C3" s="279" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="267"/>
+      <c r="D3" s="279"/>
       <c r="E3" s="95"/>
-      <c r="F3" s="268" t="s">
+      <c r="F3" s="280" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="268"/>
+      <c r="G3" s="280"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
       <c r="J3" s="96"/>
@@ -10316,10 +10331,10 @@
       <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="269" t="s">
+      <c r="B6" s="274" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="269"/>
+      <c r="C6" s="274"/>
       <c r="D6" s="103"/>
       <c r="E6" s="103"/>
       <c r="F6" s="103"/>
@@ -10488,11 +10503,11 @@
       <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="269" t="s">
+      <c r="B14" s="274" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="269"/>
-      <c r="D14" s="269"/>
+      <c r="C14" s="274"/>
+      <c r="D14" s="274"/>
       <c r="E14" s="103"/>
       <c r="F14" s="103"/>
       <c r="G14" s="104"/>
@@ -10668,11 +10683,11 @@
       <c r="G22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="269" t="s">
+      <c r="B23" s="274" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="269"/>
-      <c r="D23" s="269"/>
+      <c r="C23" s="274"/>
+      <c r="D23" s="274"/>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
       <c r="G23" s="104"/>
@@ -10718,10 +10733,10 @@
       <c r="F26" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="270" t="s">
+      <c r="G26" s="277" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="270"/>
+      <c r="H26" s="277"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="116">
@@ -10746,8 +10761,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="271"/>
-      <c r="H27" s="271"/>
+      <c r="G27" s="275"/>
+      <c r="H27" s="275"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="116">
@@ -10772,8 +10787,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="271"/>
-      <c r="H28" s="271"/>
+      <c r="G28" s="275"/>
+      <c r="H28" s="275"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="116">
@@ -10798,8 +10813,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="271"/>
-      <c r="H29" s="271"/>
+      <c r="G29" s="275"/>
+      <c r="H29" s="275"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="116">
@@ -10824,8 +10839,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="271"/>
-      <c r="H30" s="271"/>
+      <c r="G30" s="275"/>
+      <c r="H30" s="275"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="116"/>
@@ -10846,8 +10861,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="271"/>
-      <c r="H31" s="271"/>
+      <c r="G31" s="275"/>
+      <c r="H31" s="275"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="122"/>
@@ -10885,10 +10900,10 @@
       <c r="E34" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="272" t="s">
+      <c r="F34" s="271" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="272"/>
+      <c r="G34" s="271"/>
     </row>
     <row r="35" spans="1:12" s="115" customFormat="1" ht="14.25">
       <c r="A35" s="111"/>
@@ -10904,8 +10919,8 @@
       <c r="E35" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="273"/>
-      <c r="G35" s="273"/>
+      <c r="F35" s="276"/>
+      <c r="G35" s="276"/>
       <c r="H35" s="114"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -10928,8 +10943,8 @@
       <c r="E36" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="271"/>
-      <c r="G36" s="271"/>
+      <c r="F36" s="275"/>
+      <c r="G36" s="275"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="116">
@@ -10947,8 +10962,8 @@
       <c r="E37" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="271"/>
-      <c r="G37" s="271"/>
+      <c r="F37" s="275"/>
+      <c r="G37" s="275"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="122"/>
@@ -10961,10 +10976,10 @@
       <c r="H38" s="126"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="269" t="s">
+      <c r="B39" s="274" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="269"/>
+      <c r="C39" s="274"/>
       <c r="D39" s="103"/>
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
@@ -10988,15 +11003,15 @@
       <c r="B41" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="272" t="s">
+      <c r="C41" s="271" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="272"/>
-      <c r="E41" s="272" t="s">
+      <c r="D41" s="271"/>
+      <c r="E41" s="271" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="272"/>
-      <c r="G41" s="272"/>
+      <c r="F41" s="271"/>
+      <c r="G41" s="271"/>
       <c r="H41" s="108" t="s">
         <v>180</v>
       </c>
@@ -11008,15 +11023,15 @@
       <c r="B42" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="274" t="s">
+      <c r="C42" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="274"/>
-      <c r="E42" s="274" t="s">
+      <c r="D42" s="273"/>
+      <c r="E42" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="274"/>
-      <c r="G42" s="274"/>
+      <c r="F42" s="273"/>
+      <c r="G42" s="273"/>
       <c r="H42" s="131"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -11026,15 +11041,15 @@
       <c r="B43" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="274" t="s">
+      <c r="C43" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="274"/>
-      <c r="E43" s="274" t="s">
+      <c r="D43" s="273"/>
+      <c r="E43" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="274"/>
-      <c r="G43" s="274"/>
+      <c r="F43" s="273"/>
+      <c r="G43" s="273"/>
       <c r="H43" s="131"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -11044,15 +11059,15 @@
       <c r="B44" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="274" t="s">
+      <c r="C44" s="273" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="274"/>
-      <c r="E44" s="274" t="s">
+      <c r="D44" s="273"/>
+      <c r="E44" s="273" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="274"/>
-      <c r="G44" s="274"/>
+      <c r="F44" s="273"/>
+      <c r="G44" s="273"/>
       <c r="H44" s="131"/>
     </row>
     <row r="45" spans="1:12">
@@ -11064,10 +11079,10 @@
       <c r="G45" s="107"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="269" t="s">
+      <c r="B46" s="274" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="269"/>
+      <c r="C46" s="274"/>
       <c r="D46" s="103"/>
       <c r="E46" s="103"/>
       <c r="F46" s="103"/>
@@ -11085,25 +11100,25 @@
       <c r="G47" s="107"/>
     </row>
     <row r="48" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="276" t="s">
+      <c r="A48" s="269" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="277" t="s">
+      <c r="B48" s="270" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="272" t="s">
+      <c r="C48" s="271" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="272"/>
-      <c r="E48" s="272"/>
-      <c r="F48" s="272"/>
-      <c r="G48" s="278" t="s">
+      <c r="D48" s="271"/>
+      <c r="E48" s="271"/>
+      <c r="F48" s="271"/>
+      <c r="G48" s="272" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="278" t="s">
+      <c r="H48" s="272" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="275" t="s">
+      <c r="I48" s="268" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="134"/>
@@ -11111,8 +11126,8 @@
       <c r="L48" s="134"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="276"/>
-      <c r="B49" s="277"/>
+      <c r="A49" s="269"/>
+      <c r="B49" s="270"/>
       <c r="C49" s="136" t="s">
         <v>161</v>
       </c>
@@ -11125,13 +11140,13 @@
       <c r="F49" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="278"/>
-      <c r="H49" s="278"/>
-      <c r="I49" s="275"/>
+      <c r="G49" s="272"/>
+      <c r="H49" s="272"/>
+      <c r="I49" s="268"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="276"/>
-      <c r="B50" s="277"/>
+      <c r="A50" s="269"/>
+      <c r="B50" s="270"/>
       <c r="C50" s="138" t="s">
         <v>189</v>
       </c>
@@ -11243,38 +11258,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="I48:I49"/>
     <mergeCell ref="A48:A50"/>
     <mergeCell ref="B48:B50"/>
     <mergeCell ref="C48:F48"/>
     <mergeCell ref="G48:G49"/>
     <mergeCell ref="H48:H49"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">

--- a/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
+++ b/MiddleAssignment_LeTuanSang/TestCase4/TestCase4_LeTuanSang.xlsx
@@ -455,7 +455,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="409">
   <si>
     <r>
       <rPr>
@@ -1879,32 +1879,6 @@
 4. Observe Full name</t>
   </si>
   <si>
-    <t xml:space="preserve">4. Address is saved successfully and displayed on the top of Address Book
-</t>
-  </si>
-  <si>
-    <t>1. Input Full name "CREATE DATABASE 1" 
-2. Input valid data on all mandatory fields
-3. Click on Save button
-4. Observe Full name</t>
-  </si>
-  <si>
-    <t>1. Paste valid data on Full name 
-2. Input valid data on all mandatory fields
-3. Click on Save button
-4. Observe Full name</t>
-  </si>
-  <si>
-    <t>1. Input valid data on Full name and all mandatory fields
-2. Click on X icon
-3. Click on Save button
-4. Observe Full name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.1 Address is NOT saved successfully
-4.2 Show error message below the Full Name field: "Please enter your Full name" </t>
-  </si>
-  <si>
     <t>1. Input Full name 1 Alphanumeric 
 2. Input valid data on all mandatory fields
 3. Click on Save button
@@ -1981,16 +1955,44 @@
 abcyxz</t>
   </si>
   <si>
-    <t>close add screen
-new address displayed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4. Address is saved successfully and displayed on the top of Address Book
-displayed you paste
+    <t>cho pheps dung phim mui ten len xuong, cho phep go 1 chu de tim kiesm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.1 Address is saved successfully, close Add New Sddress screen
+4.2 New Address is displayed on the top of Address Book
 </t>
   </si>
   <si>
-    <t>cho pheps dung phim mui ten len xuong, cho phep go 1 chu de tim kiesm</t>
+    <t xml:space="preserve">4.1 Address is saved successfully, system auto trim space, close Add New Sddress screen
+4.2 New Address is displayed on the top of Address Book
+</t>
+  </si>
+  <si>
+    <t>1. Input Full name URL, SQL, HTTP GET, SQL Injection, XSS 
+2. Input valid data on all mandatory fields
+3. Click on Save button
+4. Observe Full name</t>
+  </si>
+  <si>
+    <t>4.1 Address is NOT saved successfully
+4.2 Show error message below the Full Name field: "Name should contain alphabetic and numeric
+characters"</t>
+  </si>
+  <si>
+    <t>1. Paste valid data on Full name from clipbroad 
+2. Copy text from Full name to other place</t>
+  </si>
+  <si>
+    <t>1. Full name display what you copied
+2. You can paste text copied from Full name to other place</t>
+  </si>
+  <si>
+    <t>1. Input valid data on Full name
+2. Click on X icon
+3. Observe Full name</t>
+  </si>
+  <si>
+    <t>3. Full name is blank</t>
   </si>
 </sst>
 </file>
@@ -3623,30 +3625,30 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="11" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -3659,32 +3661,59 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="17" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="63" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="17" borderId="3" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="0" borderId="3" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="63" fillId="0" borderId="3" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="5" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3695,35 +3724,8 @@
     <xf numFmtId="164" fontId="15" fillId="8" borderId="4" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="3" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="48" fillId="0" borderId="3" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="5" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="53" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="3" xfId="14" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="8" borderId="14" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="18" fillId="11" borderId="0" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="14" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -4856,7 +4858,7 @@
                   <c:v>4. Address display nothing and show error message below the Address field</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>cho pheps dung phim mui ten len xuong </c:v>
+                  <c:v>cho pheps dung phim mui ten len xuong, cho phep go 1 chu de tim kiesm</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>3. Show error message"Please select your Province " below the Province field</c:v>
@@ -5977,36 +5979,36 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1">
-      <c r="B2" s="251" t="s">
+      <c r="B2" s="247" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="251"/>
-      <c r="D2" s="251"/>
-      <c r="E2" s="251"/>
-      <c r="F2" s="251"/>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="252" t="s">
+      <c r="C2" s="247"/>
+      <c r="D2" s="247"/>
+      <c r="E2" s="247"/>
+      <c r="F2" s="247"/>
+      <c r="G2" s="247"/>
+      <c r="H2" s="247"/>
+      <c r="I2" s="247"/>
+      <c r="J2" s="248" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="252"/>
+      <c r="K2" s="248"/>
     </row>
     <row r="3" spans="1:11" ht="28.5" customHeight="1">
-      <c r="B3" s="253" t="s">
+      <c r="B3" s="249" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="253"/>
-      <c r="D3" s="253"/>
-      <c r="E3" s="253"/>
-      <c r="F3" s="254" t="s">
+      <c r="C3" s="249"/>
+      <c r="D3" s="249"/>
+      <c r="E3" s="249"/>
+      <c r="F3" s="250" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="254"/>
-      <c r="H3" s="254"/>
-      <c r="I3" s="254"/>
-      <c r="J3" s="252"/>
-      <c r="K3" s="252"/>
+      <c r="G3" s="250"/>
+      <c r="H3" s="250"/>
+      <c r="I3" s="250"/>
+      <c r="J3" s="248"/>
+      <c r="K3" s="248"/>
     </row>
     <row r="4" spans="1:11" ht="18" customHeight="1">
       <c r="B4" s="26"/>
@@ -6026,65 +6028,65 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A7" s="249" t="s">
+      <c r="A7" s="251" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="249"/>
-      <c r="C7" s="249"/>
-      <c r="D7" s="249"/>
-      <c r="E7" s="249"/>
-      <c r="F7" s="249"/>
-      <c r="G7" s="249"/>
-      <c r="H7" s="249"/>
-      <c r="I7" s="249"/>
+      <c r="B7" s="251"/>
+      <c r="C7" s="251"/>
+      <c r="D7" s="251"/>
+      <c r="E7" s="251"/>
+      <c r="F7" s="251"/>
+      <c r="G7" s="251"/>
+      <c r="H7" s="251"/>
+      <c r="I7" s="251"/>
     </row>
     <row r="8" spans="1:11" ht="20.25" customHeight="1">
-      <c r="A8" s="249"/>
-      <c r="B8" s="249"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="249"/>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="249"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="251"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="251"/>
+      <c r="E8" s="251"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="251"/>
+      <c r="H8" s="251"/>
+      <c r="I8" s="251"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1">
-      <c r="A9" s="249" t="s">
+      <c r="A9" s="251" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="249"/>
-      <c r="C9" s="249"/>
-      <c r="D9" s="249"/>
-      <c r="E9" s="249"/>
-      <c r="F9" s="249"/>
-      <c r="G9" s="249"/>
-      <c r="H9" s="249"/>
-      <c r="I9" s="249"/>
+      <c r="B9" s="251"/>
+      <c r="C9" s="251"/>
+      <c r="D9" s="251"/>
+      <c r="E9" s="251"/>
+      <c r="F9" s="251"/>
+      <c r="G9" s="251"/>
+      <c r="H9" s="251"/>
+      <c r="I9" s="251"/>
     </row>
     <row r="10" spans="1:11" ht="21" customHeight="1">
-      <c r="A10" s="249"/>
-      <c r="B10" s="249"/>
-      <c r="C10" s="249"/>
-      <c r="D10" s="249"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="249"/>
-      <c r="G10" s="249"/>
-      <c r="H10" s="249"/>
-      <c r="I10" s="249"/>
+      <c r="A10" s="251"/>
+      <c r="B10" s="251"/>
+      <c r="C10" s="251"/>
+      <c r="D10" s="251"/>
+      <c r="E10" s="251"/>
+      <c r="F10" s="251"/>
+      <c r="G10" s="251"/>
+      <c r="H10" s="251"/>
+      <c r="I10" s="251"/>
     </row>
     <row r="11" spans="1:11">
-      <c r="A11" s="250" t="s">
+      <c r="A11" s="252" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="250"/>
-      <c r="C11" s="250"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="250"/>
-      <c r="F11" s="250"/>
-      <c r="G11" s="250"/>
-      <c r="H11" s="250"/>
-      <c r="I11" s="250"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="252"/>
+      <c r="D11" s="252"/>
+      <c r="E11" s="252"/>
+      <c r="F11" s="252"/>
+      <c r="G11" s="252"/>
+      <c r="H11" s="252"/>
+      <c r="I11" s="252"/>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="30"/>
@@ -6106,65 +6108,65 @@
       <c r="A14" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="247" t="s">
+      <c r="B14" s="253" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="247"/>
-      <c r="D14" s="247"/>
-      <c r="E14" s="247"/>
-      <c r="F14" s="247"/>
-      <c r="G14" s="247"/>
-      <c r="H14" s="247"/>
-      <c r="I14" s="247"/>
-      <c r="J14" s="247"/>
-      <c r="K14" s="247"/>
+      <c r="C14" s="253"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="253"/>
+      <c r="F14" s="253"/>
+      <c r="G14" s="253"/>
+      <c r="H14" s="253"/>
+      <c r="I14" s="253"/>
+      <c r="J14" s="253"/>
+      <c r="K14" s="253"/>
     </row>
     <row r="15" spans="1:11" ht="14.25" customHeight="1">
       <c r="A15" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="247" t="s">
+      <c r="B15" s="253" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="247"/>
-      <c r="D15" s="247"/>
-      <c r="E15" s="247"/>
-      <c r="F15" s="247"/>
-      <c r="G15" s="247"/>
-      <c r="H15" s="247"/>
-      <c r="I15" s="247"/>
-      <c r="J15" s="247"/>
-      <c r="K15" s="247"/>
+      <c r="C15" s="253"/>
+      <c r="D15" s="253"/>
+      <c r="E15" s="253"/>
+      <c r="F15" s="253"/>
+      <c r="G15" s="253"/>
+      <c r="H15" s="253"/>
+      <c r="I15" s="253"/>
+      <c r="J15" s="253"/>
+      <c r="K15" s="253"/>
     </row>
     <row r="16" spans="1:11" ht="14.25" customHeight="1">
       <c r="A16" s="31"/>
-      <c r="B16" s="247" t="s">
+      <c r="B16" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="247"/>
-      <c r="D16" s="247"/>
-      <c r="E16" s="247"/>
-      <c r="F16" s="247"/>
-      <c r="G16" s="247"/>
-      <c r="H16" s="247"/>
-      <c r="I16" s="247"/>
-      <c r="J16" s="247"/>
-      <c r="K16" s="247"/>
+      <c r="C16" s="253"/>
+      <c r="D16" s="253"/>
+      <c r="E16" s="253"/>
+      <c r="F16" s="253"/>
+      <c r="G16" s="253"/>
+      <c r="H16" s="253"/>
+      <c r="I16" s="253"/>
+      <c r="J16" s="253"/>
+      <c r="K16" s="253"/>
     </row>
     <row r="17" spans="1:14" ht="14.25" customHeight="1">
       <c r="A17" s="31"/>
-      <c r="B17" s="247" t="s">
+      <c r="B17" s="253" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="247"/>
-      <c r="D17" s="247"/>
-      <c r="E17" s="247"/>
-      <c r="F17" s="247"/>
-      <c r="G17" s="247"/>
-      <c r="H17" s="247"/>
-      <c r="I17" s="247"/>
-      <c r="J17" s="247"/>
-      <c r="K17" s="247"/>
+      <c r="C17" s="253"/>
+      <c r="D17" s="253"/>
+      <c r="E17" s="253"/>
+      <c r="F17" s="253"/>
+      <c r="G17" s="253"/>
+      <c r="H17" s="253"/>
+      <c r="I17" s="253"/>
+      <c r="J17" s="253"/>
+      <c r="K17" s="253"/>
     </row>
     <row r="19" spans="1:14" ht="23.25">
       <c r="A19" s="29" t="s">
@@ -6175,40 +6177,40 @@
       <c r="A20" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="247" t="s">
+      <c r="B20" s="253" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="247"/>
-      <c r="D20" s="247"/>
-      <c r="E20" s="247"/>
-      <c r="F20" s="247"/>
-      <c r="G20" s="247"/>
+      <c r="C20" s="253"/>
+      <c r="D20" s="253"/>
+      <c r="E20" s="253"/>
+      <c r="F20" s="253"/>
+      <c r="G20" s="253"/>
     </row>
     <row r="21" spans="1:14" ht="12.75" customHeight="1">
       <c r="A21" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="247" t="s">
+      <c r="B21" s="253" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="247"/>
-      <c r="D21" s="247"/>
-      <c r="E21" s="247"/>
-      <c r="F21" s="247"/>
-      <c r="G21" s="247"/>
+      <c r="C21" s="253"/>
+      <c r="D21" s="253"/>
+      <c r="E21" s="253"/>
+      <c r="F21" s="253"/>
+      <c r="G21" s="253"/>
     </row>
     <row r="22" spans="1:14" ht="12.75" customHeight="1">
       <c r="A22" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="247" t="s">
+      <c r="B22" s="253" t="s">
         <v>46</v>
       </c>
-      <c r="C22" s="247"/>
-      <c r="D22" s="247"/>
-      <c r="E22" s="247"/>
-      <c r="F22" s="247"/>
-      <c r="G22" s="247"/>
+      <c r="C22" s="253"/>
+      <c r="D22" s="253"/>
+      <c r="E22" s="253"/>
+      <c r="F22" s="253"/>
+      <c r="G22" s="253"/>
     </row>
     <row r="24" spans="1:14" ht="23.25">
       <c r="A24" s="29" t="s">
@@ -6267,11 +6269,11 @@
       <c r="N27" s="34"/>
     </row>
     <row r="29" spans="1:14" ht="21.75" customHeight="1">
-      <c r="B29" s="248" t="s">
+      <c r="B29" s="254" t="s">
         <v>51</v>
       </c>
-      <c r="C29" s="248"/>
-      <c r="D29" s="248"/>
+      <c r="C29" s="254"/>
+      <c r="D29" s="254"/>
     </row>
     <row r="30" spans="1:14" ht="90" customHeight="1">
       <c r="B30" s="35"/>
@@ -6294,21 +6296,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B17:K17"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="A9:I10"/>
+    <mergeCell ref="A11:I11"/>
+    <mergeCell ref="B14:K14"/>
+    <mergeCell ref="B15:K15"/>
+    <mergeCell ref="B16:K16"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="J2:K3"/>
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="A9:I10"/>
-    <mergeCell ref="A11:I11"/>
-    <mergeCell ref="B14:K14"/>
-    <mergeCell ref="B15:K15"/>
-    <mergeCell ref="B16:K16"/>
-    <mergeCell ref="B17:K17"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B29:D29"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -6762,8 +6764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AMJ211"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -6780,10 +6782,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="23" customFormat="1" ht="14.25">
-      <c r="A1" s="264"/>
-      <c r="B1" s="264"/>
-      <c r="C1" s="264"/>
-      <c r="D1" s="264"/>
+      <c r="A1" s="259"/>
+      <c r="B1" s="259"/>
+      <c r="C1" s="259"/>
+      <c r="D1" s="259"/>
       <c r="E1" s="25"/>
       <c r="F1" s="24"/>
       <c r="G1" s="24"/>
@@ -6793,14 +6795,14 @@
       <c r="K1" s="24"/>
     </row>
     <row r="2" spans="1:25" s="23" customFormat="1" ht="26.25">
-      <c r="A2" s="265" t="s">
+      <c r="A2" s="260" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="265"/>
-      <c r="C2" s="265"/>
-      <c r="D2" s="265"/>
+      <c r="B2" s="260"/>
+      <c r="C2" s="260"/>
+      <c r="D2" s="260"/>
       <c r="E2" s="71"/>
-      <c r="F2" s="266"/>
+      <c r="F2" s="261"/>
       <c r="G2" s="56"/>
       <c r="H2" s="56"/>
       <c r="I2" s="56"/>
@@ -6810,10 +6812,10 @@
     <row r="3" spans="1:25" s="23" customFormat="1" ht="23.25">
       <c r="A3" s="72"/>
       <c r="B3" s="73"/>
-      <c r="C3" s="267"/>
-      <c r="D3" s="267"/>
+      <c r="C3" s="262"/>
+      <c r="D3" s="262"/>
       <c r="E3" s="74"/>
-      <c r="F3" s="266"/>
+      <c r="F3" s="261"/>
       <c r="G3" s="56"/>
       <c r="H3" s="56"/>
       <c r="I3" s="56"/>
@@ -6824,9 +6826,9 @@
       <c r="A4" s="163" t="s">
         <v>196</v>
       </c>
-      <c r="B4" s="261"/>
-      <c r="C4" s="261"/>
-      <c r="D4" s="261"/>
+      <c r="B4" s="263"/>
+      <c r="C4" s="263"/>
+      <c r="D4" s="263"/>
       <c r="E4" s="164"/>
       <c r="F4" s="165"/>
       <c r="G4" s="165"/>
@@ -6841,9 +6843,9 @@
       <c r="A5" s="163" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="261"/>
-      <c r="C5" s="261"/>
-      <c r="D5" s="261"/>
+      <c r="B5" s="263"/>
+      <c r="C5" s="263"/>
+      <c r="D5" s="263"/>
       <c r="E5" s="164"/>
       <c r="F5" s="165"/>
       <c r="G5" s="165"/>
@@ -6858,9 +6860,9 @@
       <c r="A6" s="163" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="261"/>
-      <c r="C6" s="261"/>
-      <c r="D6" s="261"/>
+      <c r="B6" s="263"/>
+      <c r="C6" s="263"/>
+      <c r="D6" s="263"/>
       <c r="E6" s="164"/>
       <c r="F6" s="165"/>
       <c r="G6" s="165"/>
@@ -6872,11 +6874,11 @@
       <c r="A7" s="163" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="261" t="s">
+      <c r="B7" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="261"/>
-      <c r="D7" s="261"/>
+      <c r="C7" s="263"/>
+      <c r="D7" s="263"/>
       <c r="E7" s="164"/>
       <c r="F7" s="165"/>
       <c r="G7" s="165"/>
@@ -6889,9 +6891,9 @@
       <c r="A8" s="163" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="262"/>
-      <c r="C8" s="262"/>
-      <c r="D8" s="262"/>
+      <c r="B8" s="264"/>
+      <c r="C8" s="264"/>
+      <c r="D8" s="264"/>
       <c r="E8" s="168"/>
       <c r="F8" s="165"/>
       <c r="G8" s="169"/>
@@ -7067,11 +7069,11 @@
       <c r="D16" s="181"/>
       <c r="E16" s="181"/>
       <c r="F16" s="182"/>
-      <c r="G16" s="263" t="s">
+      <c r="G16" s="265" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="263"/>
-      <c r="I16" s="263"/>
+      <c r="H16" s="265"/>
+      <c r="I16" s="265"/>
       <c r="J16" s="183"/>
     </row>
     <row r="17" spans="1:10" s="78" customFormat="1">
@@ -7142,9 +7144,7 @@
       <c r="D20" s="201" t="s">
         <v>252</v>
       </c>
-      <c r="E20" s="201" t="s">
-        <v>405</v>
-      </c>
+      <c r="E20" s="201"/>
       <c r="F20" s="201"/>
       <c r="G20" s="193"/>
       <c r="H20" s="193"/>
@@ -7202,7 +7202,7 @@
         <v>254</v>
       </c>
       <c r="C23" s="201" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D23" s="201" t="s">
         <v>378</v>
@@ -7214,7 +7214,7 @@
       <c r="I23" s="193"/>
       <c r="J23" s="198"/>
     </row>
-    <row r="24" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="24" spans="1:10" s="79" customFormat="1" ht="63.75">
       <c r="A24" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -7223,10 +7223,10 @@
         <v>203</v>
       </c>
       <c r="C24" s="201" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D24" s="201" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E24" s="201"/>
       <c r="F24" s="202"/>
@@ -7235,7 +7235,7 @@
       <c r="I24" s="193"/>
       <c r="J24" s="198"/>
     </row>
-    <row r="25" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="25" spans="1:10" s="79" customFormat="1" ht="63.75">
       <c r="A25" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>6</v>
@@ -7244,10 +7244,10 @@
         <v>223</v>
       </c>
       <c r="C25" s="201" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="D25" s="201" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E25" s="200"/>
       <c r="F25" s="202"/>
@@ -7256,7 +7256,7 @@
       <c r="I25" s="193"/>
       <c r="J25" s="198"/>
     </row>
-    <row r="26" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="26" spans="1:10" s="79" customFormat="1" ht="63.75">
       <c r="A26" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>7</v>
@@ -7265,10 +7265,10 @@
         <v>204</v>
       </c>
       <c r="C26" s="201" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="D26" s="201" t="s">
-        <v>381</v>
+        <v>401</v>
       </c>
       <c r="E26" s="200"/>
       <c r="F26" s="202"/>
@@ -7298,7 +7298,7 @@
       <c r="I27" s="193"/>
       <c r="J27" s="198"/>
     </row>
-    <row r="28" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="28" spans="1:10" s="79" customFormat="1" ht="63.75">
       <c r="A28" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>9</v>
@@ -7310,7 +7310,7 @@
         <v>380</v>
       </c>
       <c r="D28" s="201" t="s">
-        <v>381</v>
+        <v>402</v>
       </c>
       <c r="E28" s="200"/>
       <c r="F28" s="204"/>
@@ -7319,7 +7319,7 @@
       <c r="I28" s="193"/>
       <c r="J28" s="198"/>
     </row>
-    <row r="29" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="29" spans="1:10" s="79" customFormat="1" ht="63.75">
       <c r="A29" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>10</v>
@@ -7328,10 +7328,10 @@
         <v>202</v>
       </c>
       <c r="C29" s="201" t="s">
-        <v>382</v>
+        <v>403</v>
       </c>
       <c r="D29" s="201" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="E29" s="200"/>
       <c r="F29" s="204"/>
@@ -7340,7 +7340,7 @@
       <c r="I29" s="193"/>
       <c r="J29" s="198"/>
     </row>
-    <row r="30" spans="1:10" s="79" customFormat="1" ht="51">
+    <row r="30" spans="1:10" s="79" customFormat="1" ht="38.25">
       <c r="A30" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>11</v>
@@ -7349,7 +7349,7 @@
         <v>221</v>
       </c>
       <c r="C30" s="193" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="D30" s="201" t="s">
         <v>406</v>
@@ -7361,7 +7361,7 @@
       <c r="I30" s="193"/>
       <c r="J30" s="198"/>
     </row>
-    <row r="31" spans="1:10" s="79" customFormat="1" ht="63.75">
+    <row r="31" spans="1:10" s="79" customFormat="1" ht="38.25">
       <c r="A31" s="193">
         <f t="shared" ca="1" si="0"/>
         <v>12</v>
@@ -7370,10 +7370,10 @@
         <v>255</v>
       </c>
       <c r="C31" s="201" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="D31" s="201" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="E31" s="200"/>
       <c r="F31" s="204"/>
@@ -7429,7 +7429,7 @@
         <v>328</v>
       </c>
       <c r="D34" s="201" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="E34" s="200"/>
       <c r="F34" s="212"/>
@@ -7450,7 +7450,7 @@
         <v>329</v>
       </c>
       <c r="D35" s="201" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="E35" s="201"/>
       <c r="F35" s="212"/>
@@ -7492,7 +7492,7 @@
         <v>331</v>
       </c>
       <c r="D37" s="201" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="E37" s="201"/>
       <c r="F37" s="212"/>
@@ -7692,7 +7692,7 @@
         <v>315</v>
       </c>
       <c r="D47" s="201" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="E47" s="214"/>
       <c r="F47" s="215"/>
@@ -7713,7 +7713,7 @@
         <v>316</v>
       </c>
       <c r="D48" s="193" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="E48" s="216"/>
       <c r="F48" s="215"/>
@@ -7940,7 +7940,7 @@
         <v>273</v>
       </c>
       <c r="E59" s="200" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="F59" s="200"/>
       <c r="G59" s="193"/>
@@ -7960,7 +7960,7 @@
         <v>314</v>
       </c>
       <c r="D60" s="201" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="E60" s="200"/>
       <c r="F60" s="200"/>
@@ -8241,7 +8241,7 @@
         <v>50</v>
       </c>
       <c r="B74" s="199" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="C74" s="201" t="s">
         <v>362</v>
@@ -8563,13 +8563,13 @@
         <v>64</v>
       </c>
       <c r="B90" s="225" t="s">
+        <v>393</v>
+      </c>
+      <c r="C90" s="225" t="s">
+        <v>395</v>
+      </c>
+      <c r="D90" s="229" t="s">
         <v>398</v>
-      </c>
-      <c r="C90" s="225" t="s">
-        <v>400</v>
-      </c>
-      <c r="D90" s="229" t="s">
-        <v>403</v>
       </c>
       <c r="E90" s="231"/>
       <c r="F90" s="210"/>
@@ -8581,13 +8581,13 @@
     <row r="91" spans="1:10" s="79" customFormat="1">
       <c r="A91" s="193"/>
       <c r="B91" s="225" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="C91" s="225" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D91" s="229" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="E91" s="240"/>
       <c r="F91" s="210"/>
@@ -8790,7 +8790,7 @@
         <v>297</v>
       </c>
       <c r="D101" s="215" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="E101" s="216"/>
       <c r="F101" s="217"/>
@@ -8811,7 +8811,7 @@
         <v>298</v>
       </c>
       <c r="D102" s="215" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E102" s="239"/>
       <c r="F102" s="217"/>
@@ -9615,9 +9615,9 @@
     </row>
     <row r="163" spans="1:10" s="84" customFormat="1">
       <c r="A163" s="82"/>
-      <c r="B163" s="260"/>
-      <c r="C163" s="260"/>
-      <c r="D163" s="260"/>
+      <c r="B163" s="267"/>
+      <c r="C163" s="267"/>
+      <c r="D163" s="267"/>
       <c r="E163" s="157"/>
       <c r="F163" s="147"/>
       <c r="G163" s="148"/>
@@ -9999,9 +9999,9 @@
     </row>
     <row r="195" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A195" s="86"/>
-      <c r="B195" s="259"/>
-      <c r="C195" s="259"/>
-      <c r="D195" s="259"/>
+      <c r="B195" s="266"/>
+      <c r="C195" s="266"/>
+      <c r="D195" s="266"/>
       <c r="E195" s="158"/>
       <c r="F195" s="152"/>
       <c r="G195" s="153"/>
@@ -10047,9 +10047,9 @@
     </row>
     <row r="199" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A199" s="86"/>
-      <c r="B199" s="259"/>
-      <c r="C199" s="259"/>
-      <c r="D199" s="259"/>
+      <c r="B199" s="266"/>
+      <c r="C199" s="266"/>
+      <c r="D199" s="266"/>
       <c r="E199" s="158"/>
       <c r="F199" s="152"/>
       <c r="G199" s="153"/>
@@ -10095,9 +10095,9 @@
     </row>
     <row r="203" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A203" s="86"/>
-      <c r="B203" s="259"/>
-      <c r="C203" s="259"/>
-      <c r="D203" s="259"/>
+      <c r="B203" s="266"/>
+      <c r="C203" s="266"/>
+      <c r="D203" s="266"/>
       <c r="E203" s="158"/>
       <c r="F203" s="152"/>
       <c r="G203" s="153"/>
@@ -10131,9 +10131,9 @@
     </row>
     <row r="206" spans="1:10" s="84" customFormat="1" ht="14.25">
       <c r="A206" s="86"/>
-      <c r="B206" s="259"/>
-      <c r="C206" s="259"/>
-      <c r="D206" s="259"/>
+      <c r="B206" s="266"/>
+      <c r="C206" s="266"/>
+      <c r="D206" s="266"/>
       <c r="E206" s="158"/>
       <c r="F206" s="152"/>
       <c r="G206" s="153"/>
@@ -10203,21 +10203,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B206:D206"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B195:D195"/>
+    <mergeCell ref="B199:D199"/>
+    <mergeCell ref="B203:D203"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="G16:I16"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="B206:D206"/>
-    <mergeCell ref="B163:D163"/>
-    <mergeCell ref="B195:D195"/>
-    <mergeCell ref="B199:D199"/>
-    <mergeCell ref="B203:D203"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation showDropDown="1" showErrorMessage="1" sqref="G16:I17">
@@ -10281,13 +10281,13 @@
     </row>
     <row r="2" spans="1:12" s="92" customFormat="1" ht="26.25">
       <c r="A2" s="91"/>
-      <c r="C2" s="278" t="s">
+      <c r="C2" s="268" t="s">
         <v>109</v>
       </c>
-      <c r="D2" s="278"/>
-      <c r="E2" s="278"/>
-      <c r="F2" s="278"/>
-      <c r="G2" s="278"/>
+      <c r="D2" s="268"/>
+      <c r="E2" s="268"/>
+      <c r="F2" s="268"/>
+      <c r="G2" s="268"/>
       <c r="H2" s="93" t="s">
         <v>110</v>
       </c>
@@ -10298,15 +10298,15 @@
     </row>
     <row r="3" spans="1:12" s="92" customFormat="1" ht="23.25">
       <c r="A3" s="91"/>
-      <c r="C3" s="279" t="s">
+      <c r="C3" s="269" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="279"/>
+      <c r="D3" s="269"/>
       <c r="E3" s="95"/>
-      <c r="F3" s="280" t="s">
+      <c r="F3" s="270" t="s">
         <v>112</v>
       </c>
-      <c r="G3" s="280"/>
+      <c r="G3" s="270"/>
       <c r="H3" s="94"/>
       <c r="I3" s="94"/>
       <c r="J3" s="96"/>
@@ -10331,10 +10331,10 @@
       <c r="L5" s="101"/>
     </row>
     <row r="6" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B6" s="274" t="s">
+      <c r="B6" s="271" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="274"/>
+      <c r="C6" s="271"/>
       <c r="D6" s="103"/>
       <c r="E6" s="103"/>
       <c r="F6" s="103"/>
@@ -10503,11 +10503,11 @@
       <c r="G13" s="107"/>
     </row>
     <row r="14" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B14" s="274" t="s">
+      <c r="B14" s="271" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="274"/>
-      <c r="D14" s="274"/>
+      <c r="C14" s="271"/>
+      <c r="D14" s="271"/>
       <c r="E14" s="103"/>
       <c r="F14" s="103"/>
       <c r="G14" s="104"/>
@@ -10683,11 +10683,11 @@
       <c r="G22" s="107"/>
     </row>
     <row r="23" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B23" s="274" t="s">
+      <c r="B23" s="271" t="s">
         <v>153</v>
       </c>
-      <c r="C23" s="274"/>
-      <c r="D23" s="274"/>
+      <c r="C23" s="271"/>
+      <c r="D23" s="271"/>
       <c r="E23" s="103"/>
       <c r="F23" s="103"/>
       <c r="G23" s="104"/>
@@ -10733,10 +10733,10 @@
       <c r="F26" s="109" t="s">
         <v>160</v>
       </c>
-      <c r="G26" s="277" t="s">
+      <c r="G26" s="272" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="277"/>
+      <c r="H26" s="272"/>
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="116">
@@ -10761,8 +10761,8 @@
         <f>COUNTIFS(#REF!, "*Critical*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Critical*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G27" s="275"/>
-      <c r="H27" s="275"/>
+      <c r="G27" s="273"/>
+      <c r="H27" s="273"/>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1">
       <c r="A28" s="116">
@@ -10787,8 +10787,8 @@
         <f>COUNTIFS(#REF!, "*Major*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Major*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G28" s="275"/>
-      <c r="H28" s="275"/>
+      <c r="G28" s="273"/>
+      <c r="H28" s="273"/>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1">
       <c r="A29" s="116">
@@ -10813,8 +10813,8 @@
         <f>COUNTIFS(#REF!, "*Normal*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Normal*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G29" s="275"/>
-      <c r="H29" s="275"/>
+      <c r="G29" s="273"/>
+      <c r="H29" s="273"/>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1">
       <c r="A30" s="116">
@@ -10839,8 +10839,8 @@
         <f>COUNTIFS(#REF!, "*Minor*",#REF!,"*Closed*") + COUNTIFS(#REF!, "*Minor*",#REF!,"*Ready for client test*")</f>
         <v>#REF!</v>
       </c>
-      <c r="G30" s="275"/>
-      <c r="H30" s="275"/>
+      <c r="G30" s="273"/>
+      <c r="H30" s="273"/>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1">
       <c r="A31" s="116"/>
@@ -10861,8 +10861,8 @@
         <f>SUM(F27:F30)</f>
         <v>#REF!</v>
       </c>
-      <c r="G31" s="275"/>
-      <c r="H31" s="275"/>
+      <c r="G31" s="273"/>
+      <c r="H31" s="273"/>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1">
       <c r="A32" s="122"/>
@@ -10900,10 +10900,10 @@
       <c r="E34" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="F34" s="271" t="s">
+      <c r="F34" s="274" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="271"/>
+      <c r="G34" s="274"/>
     </row>
     <row r="35" spans="1:12" s="115" customFormat="1" ht="14.25">
       <c r="A35" s="111"/>
@@ -10919,8 +10919,8 @@
       <c r="E35" s="120" t="s">
         <v>127</v>
       </c>
-      <c r="F35" s="276"/>
-      <c r="G35" s="276"/>
+      <c r="F35" s="275"/>
+      <c r="G35" s="275"/>
       <c r="H35" s="114"/>
       <c r="I35" s="114"/>
       <c r="J35" s="114"/>
@@ -10943,8 +10943,8 @@
       <c r="E36" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F36" s="275"/>
-      <c r="G36" s="275"/>
+      <c r="F36" s="273"/>
+      <c r="G36" s="273"/>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1">
       <c r="A37" s="116">
@@ -10962,8 +10962,8 @@
       <c r="E37" s="121" t="s">
         <v>133</v>
       </c>
-      <c r="F37" s="275"/>
-      <c r="G37" s="275"/>
+      <c r="F37" s="273"/>
+      <c r="G37" s="273"/>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1">
       <c r="A38" s="122"/>
@@ -10976,10 +10976,10 @@
       <c r="H38" s="126"/>
     </row>
     <row r="39" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B39" s="274" t="s">
+      <c r="B39" s="271" t="s">
         <v>176</v>
       </c>
-      <c r="C39" s="274"/>
+      <c r="C39" s="271"/>
       <c r="D39" s="103"/>
       <c r="E39" s="103"/>
       <c r="F39" s="103"/>
@@ -11003,15 +11003,15 @@
       <c r="B41" s="109" t="s">
         <v>62</v>
       </c>
-      <c r="C41" s="271" t="s">
+      <c r="C41" s="274" t="s">
         <v>178</v>
       </c>
-      <c r="D41" s="271"/>
-      <c r="E41" s="271" t="s">
+      <c r="D41" s="274"/>
+      <c r="E41" s="274" t="s">
         <v>179</v>
       </c>
-      <c r="F41" s="271"/>
-      <c r="G41" s="271"/>
+      <c r="F41" s="274"/>
+      <c r="G41" s="274"/>
       <c r="H41" s="108" t="s">
         <v>180</v>
       </c>
@@ -11023,15 +11023,15 @@
       <c r="B42" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C42" s="273" t="s">
+      <c r="C42" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="D42" s="273"/>
-      <c r="E42" s="273" t="s">
+      <c r="D42" s="276"/>
+      <c r="E42" s="276" t="s">
         <v>183</v>
       </c>
-      <c r="F42" s="273"/>
-      <c r="G42" s="273"/>
+      <c r="F42" s="276"/>
+      <c r="G42" s="276"/>
       <c r="H42" s="131"/>
     </row>
     <row r="43" spans="1:12" ht="34.5" customHeight="1">
@@ -11041,15 +11041,15 @@
       <c r="B43" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C43" s="273" t="s">
+      <c r="C43" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="D43" s="273"/>
-      <c r="E43" s="273" t="s">
+      <c r="D43" s="276"/>
+      <c r="E43" s="276" t="s">
         <v>183</v>
       </c>
-      <c r="F43" s="273"/>
-      <c r="G43" s="273"/>
+      <c r="F43" s="276"/>
+      <c r="G43" s="276"/>
       <c r="H43" s="131"/>
     </row>
     <row r="44" spans="1:12" ht="34.5" customHeight="1">
@@ -11059,15 +11059,15 @@
       <c r="B44" s="130" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="273" t="s">
+      <c r="C44" s="276" t="s">
         <v>182</v>
       </c>
-      <c r="D44" s="273"/>
-      <c r="E44" s="273" t="s">
+      <c r="D44" s="276"/>
+      <c r="E44" s="276" t="s">
         <v>183</v>
       </c>
-      <c r="F44" s="273"/>
-      <c r="G44" s="273"/>
+      <c r="F44" s="276"/>
+      <c r="G44" s="276"/>
       <c r="H44" s="131"/>
     </row>
     <row r="45" spans="1:12">
@@ -11079,10 +11079,10 @@
       <c r="G45" s="107"/>
     </row>
     <row r="46" spans="1:12" ht="21.75" customHeight="1">
-      <c r="B46" s="274" t="s">
+      <c r="B46" s="271" t="s">
         <v>184</v>
       </c>
-      <c r="C46" s="274"/>
+      <c r="C46" s="271"/>
       <c r="D46" s="103"/>
       <c r="E46" s="103"/>
       <c r="F46" s="103"/>
@@ -11100,25 +11100,25 @@
       <c r="G47" s="107"/>
     </row>
     <row r="48" spans="1:12" s="135" customFormat="1" ht="21" customHeight="1">
-      <c r="A48" s="269" t="s">
+      <c r="A48" s="278" t="s">
         <v>58</v>
       </c>
-      <c r="B48" s="270" t="s">
+      <c r="B48" s="279" t="s">
         <v>186</v>
       </c>
-      <c r="C48" s="271" t="s">
+      <c r="C48" s="274" t="s">
         <v>187</v>
       </c>
-      <c r="D48" s="271"/>
-      <c r="E48" s="271"/>
-      <c r="F48" s="271"/>
-      <c r="G48" s="272" t="s">
+      <c r="D48" s="274"/>
+      <c r="E48" s="274"/>
+      <c r="F48" s="274"/>
+      <c r="G48" s="280" t="s">
         <v>152</v>
       </c>
-      <c r="H48" s="272" t="s">
+      <c r="H48" s="280" t="s">
         <v>186</v>
       </c>
-      <c r="I48" s="268" t="s">
+      <c r="I48" s="277" t="s">
         <v>188</v>
       </c>
       <c r="J48" s="134"/>
@@ -11126,8 +11126,8 @@
       <c r="L48" s="134"/>
     </row>
     <row r="49" spans="1:9">
-      <c r="A49" s="269"/>
-      <c r="B49" s="270"/>
+      <c r="A49" s="278"/>
+      <c r="B49" s="279"/>
       <c r="C49" s="136" t="s">
         <v>161</v>
       </c>
@@ -11140,13 +11140,13 @@
       <c r="F49" s="137" t="s">
         <v>164</v>
       </c>
-      <c r="G49" s="272"/>
-      <c r="H49" s="272"/>
-      <c r="I49" s="268"/>
+      <c r="G49" s="280"/>
+      <c r="H49" s="280"/>
+      <c r="I49" s="277"/>
     </row>
     <row r="50" spans="1:9" ht="38.25">
-      <c r="A50" s="269"/>
-      <c r="B50" s="270"/>
+      <c r="A50" s="278"/>
+      <c r="B50" s="279"/>
       <c r="C50" s="138" t="s">
         <v>189</v>
       </c>
@@ -11258,38 +11258,38 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G26:H26"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="E43:G43"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="E44:G44"/>
+    <mergeCell ref="B46:C46"/>
     <mergeCell ref="F37:G37"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="E41:G41"/>
     <mergeCell ref="C42:D42"/>
     <mergeCell ref="E42:G42"/>
-    <mergeCell ref="C43:D43"/>
-    <mergeCell ref="E43:G43"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="E44:G44"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G26:H26"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <conditionalFormatting sqref="H51">
     <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
